--- a/tests/samples/MASSREF4tests.xlsx
+++ b/tests/samples/MASSREF4tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908C147A-17D0-421A-B8A7-03E8CF81CE1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B818DF94-0E0F-4269-BD7A-0A41BD8FF5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="2400" windowWidth="14400" windowHeight="7365" tabRatio="843" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="843" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mettler A" sheetId="13" r:id="rId1"/>
@@ -388,6 +388,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>g)</t>
     </r>
@@ -411,6 +412,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -434,6 +436,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -514,6 +517,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -636,7 +640,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,6 +819,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1228,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2373,7 +2380,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4400,8 +4407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE9B5D4-F934-48BA-9C7B-67137F0D6D60}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5202,7 +5209,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5231,8 +5238,8 @@
         <v>30</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
+      <c r="D1" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>1</v>
@@ -5328,10 +5335,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="48"/>
-      <c r="D4" s="49">
-        <v>10000.003261553</v>
-      </c>
-      <c r="E4" s="50">
+      <c r="D4" s="19">
+        <v>10000.00503</v>
+      </c>
+      <c r="E4" s="20">
         <v>155.87700000000001</v>
       </c>
       <c r="F4" s="24">

--- a/tests/samples/MASSREF4tests.xlsx
+++ b/tests/samples/MASSREF4tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B818DF94-0E0F-4269-BD7A-0A41BD8FF5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FEB06C-3023-4068-BF0E-588C887A53DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="843" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34620" yWindow="4180" windowWidth="10520" windowHeight="15020" tabRatio="843" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mettler A" sheetId="13" r:id="rId1"/>
@@ -18,16 +18,22 @@
     <sheet name="CUSTOM" sheetId="15" r:id="rId3"/>
     <sheet name="Mettler A (2)" sheetId="17" r:id="rId4"/>
     <sheet name="Mettler B (2)" sheetId="18" r:id="rId5"/>
+    <sheet name="Mettler 76a" sheetId="20" r:id="rId6"/>
+    <sheet name="W5 SS" sheetId="21" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Mettler 76a'!$A:$C,'Mettler 76a'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Mettler A'!$A:$C,'Mettler A'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Mettler A (2)'!$A:$C,'Mettler A (2)'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Mettler B'!$A:$C,'Mettler B'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mettler B (2)'!$A:$C,'Mettler B (2)'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'W5 SS'!$A:$C,'W5 SS'!$1:$3</definedName>
+    <definedName name="WeightSet" localSheetId="5">'Mettler 76a'!$B$4:$H$21</definedName>
     <definedName name="WeightSet" localSheetId="0">'Mettler A'!$B$5:$H$36</definedName>
     <definedName name="WeightSet" localSheetId="3">'Mettler A (2)'!$B$5:$H$36</definedName>
     <definedName name="WeightSet" localSheetId="1">'Mettler B'!$B$8:$H$36</definedName>
     <definedName name="WeightSet" localSheetId="4">'Mettler B (2)'!$B$8:$H$36</definedName>
+    <definedName name="WeightSet" localSheetId="6">'W5 SS'!$B$5:$H$36</definedName>
     <definedName name="WeightSet">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -212,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="41">
   <si>
     <t>ID:</t>
   </si>
@@ -450,6 +456,18 @@
   <si>
     <t>···</t>
   </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Mettler 76a</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>W5 SS</t>
+  </si>
 </sst>
 </file>
 
@@ -640,7 +658,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,6 +841,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5208,7 +5227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1FE45F-5790-4499-A796-54814D075F0F}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -6003,4 +6022,1749 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F65443D-EC23-4028-B732-6F2DA2E7A0B6}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" customWidth="1"/>
+    <col min="12" max="14" width="12.7265625" customWidth="1"/>
+    <col min="15" max="15" width="60.7265625" customWidth="1"/>
+    <col min="16" max="16" width="0.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="33">
+        <v>35065</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="13">
+        <v>100</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4">
+        <v>100.00005910799999</v>
+      </c>
+      <c r="E4">
+        <v>4.008</v>
+      </c>
+      <c r="F4" s="21">
+        <v>34</v>
+      </c>
+      <c r="G4" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="20">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <v>50</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="13">
+        <v>50</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="57">
+        <v>50.000053126000005</v>
+      </c>
+      <c r="E5">
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="F5" s="21">
+        <v>14</v>
+      </c>
+      <c r="G5" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="20">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
+        <v>50</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="57">
+        <v>19.999998345999998</v>
+      </c>
+      <c r="E6">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="F6" s="21">
+        <v>14</v>
+      </c>
+      <c r="G6" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
+        <v>50</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="13">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="57">
+        <v>10.000010290999999</v>
+      </c>
+      <c r="E7">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="F7" s="21">
+        <v>14</v>
+      </c>
+      <c r="G7" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="21">
+        <v>50</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="57">
+        <v>4.9999977819999994</v>
+      </c>
+      <c r="E8">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="F8" s="21">
+        <v>14</v>
+      </c>
+      <c r="G8" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="21">
+        <v>50</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="57">
+        <v>1.9999962910000002</v>
+      </c>
+      <c r="E9">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F9" s="21">
+        <v>14</v>
+      </c>
+      <c r="G9" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H9" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="21">
+        <v>50</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="57">
+        <v>0.99995660099999994</v>
+      </c>
+      <c r="E10">
+        <v>0.752</v>
+      </c>
+      <c r="F10" s="21">
+        <v>14</v>
+      </c>
+      <c r="G10" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="20">
+        <v>0</v>
+      </c>
+      <c r="N10" s="21">
+        <v>50</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.5" top="0.75" bottom="0.5" header="0.375" footer="0.25"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A&amp;RPage &amp;P of &amp;N</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;R&amp;T  &amp;D</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520A4B3-5717-4848-9B55-AE1CAF888F1F}">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" customWidth="1"/>
+    <col min="12" max="14" width="12.7265625" customWidth="1"/>
+    <col min="15" max="15" width="60.7265625" customWidth="1"/>
+    <col min="16" max="16" width="0.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="33">
+        <v>35065</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="19">
+        <v>10000.00364074</v>
+      </c>
+      <c r="E4" s="20">
+        <v>155.87700000000001</v>
+      </c>
+      <c r="F4" s="21">
+        <v>33</v>
+      </c>
+      <c r="G4" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="20">
+        <v>427.00529078689408</v>
+      </c>
+      <c r="N4" s="21">
+        <v>50</v>
+      </c>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="19">
+        <v>5000.0028770019999</v>
+      </c>
+      <c r="E5" s="20">
+        <v>78.076999999999998</v>
+      </c>
+      <c r="F5" s="21">
+        <v>33</v>
+      </c>
+      <c r="G5" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="20">
+        <v>213.77517311418552</v>
+      </c>
+      <c r="N5" s="21">
+        <v>50</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="19">
+        <v>1999.999615211</v>
+      </c>
+      <c r="E6" s="20">
+        <v>31.314</v>
+      </c>
+      <c r="F6" s="21">
+        <v>33</v>
+      </c>
+      <c r="G6" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="20">
+        <v>85.469199300098751</v>
+      </c>
+      <c r="N6" s="21">
+        <v>50</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="19">
+        <v>1000.000541002</v>
+      </c>
+      <c r="E7" s="20">
+        <v>14.785</v>
+      </c>
+      <c r="F7" s="21">
+        <v>18</v>
+      </c>
+      <c r="G7" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I7" s="21">
+        <v>102</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="20">
+        <v>42.044148213514802</v>
+      </c>
+      <c r="N7" s="21">
+        <v>50</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13">
+        <v>500</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="19">
+        <v>500.00011696799999</v>
+      </c>
+      <c r="E8" s="20">
+        <v>7.6219999999999999</v>
+      </c>
+      <c r="F8" s="21">
+        <v>34</v>
+      </c>
+      <c r="G8" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="20">
+        <v>20.95166201044681</v>
+      </c>
+      <c r="N8" s="21">
+        <v>50</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13">
+        <v>200</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="19">
+        <v>200.000195848</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="F9" s="21">
+        <v>34</v>
+      </c>
+      <c r="G9" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H9" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="20">
+        <v>8.1087108716490821</v>
+      </c>
+      <c r="N9" s="21">
+        <v>50</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="13">
+        <v>100</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="19">
+        <v>100.000058368</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2.7090000000000001</v>
+      </c>
+      <c r="F10" s="21">
+        <v>34</v>
+      </c>
+      <c r="G10" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="20">
+        <v>3.62698883372971</v>
+      </c>
+      <c r="N10" s="21">
+        <v>50</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13">
+        <v>50</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="19">
+        <v>50.000035719000003</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1.377</v>
+      </c>
+      <c r="F11" s="21">
+        <v>14</v>
+      </c>
+      <c r="G11" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H11" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="20">
+        <v>2.2746762406988821</v>
+      </c>
+      <c r="N11" s="21">
+        <v>50</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="13">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="19">
+        <v>20.000006814999999</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F12" s="21">
+        <v>14</v>
+      </c>
+      <c r="G12" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="20">
+        <v>2.0414546284451194</v>
+      </c>
+      <c r="N12" s="21">
+        <v>50</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="19">
+        <v>10.000013709999999</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.318</v>
+      </c>
+      <c r="F13" s="21">
+        <v>14</v>
+      </c>
+      <c r="G13" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="20">
+        <v>1.655739109884163</v>
+      </c>
+      <c r="N13" s="21">
+        <v>50</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="13">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="19">
+        <v>5.0000117030000002</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.246</v>
+      </c>
+      <c r="F14" s="21">
+        <v>14</v>
+      </c>
+      <c r="G14" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="20">
+        <v>1.3192603988599068</v>
+      </c>
+      <c r="N14" s="21">
+        <v>50</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="19">
+        <v>2.0000093849999998</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15" s="21">
+        <v>14</v>
+      </c>
+      <c r="G15" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="20">
+        <v>0.99318125234017574</v>
+      </c>
+      <c r="N15" s="21">
+        <v>50</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="19">
+        <v>1.0000066750000001</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.1148</v>
+      </c>
+      <c r="F16" s="21">
+        <v>14</v>
+      </c>
+      <c r="G16" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="20">
+        <v>0.82908983831669292</v>
+      </c>
+      <c r="N16" s="21">
+        <v>50</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="19">
+        <v>0.49999992700000001</v>
+      </c>
+      <c r="E17" s="20">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="F17" s="21">
+        <v>14</v>
+      </c>
+      <c r="G17" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="20">
+        <v>0.66581182777118042</v>
+      </c>
+      <c r="N17" s="21">
+        <v>50</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="19">
+        <v>0.20000657299999999</v>
+      </c>
+      <c r="E18" s="20">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <v>14</v>
+      </c>
+      <c r="G18" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="20">
+        <v>0.49959827861993278</v>
+      </c>
+      <c r="N18" s="21">
+        <v>50</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="19">
+        <v>9.9997197999999995E-2</v>
+      </c>
+      <c r="E19" s="20">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="F19" s="21">
+        <v>14</v>
+      </c>
+      <c r="G19" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="20">
+        <v>0.41747052590572187</v>
+      </c>
+      <c r="N19" s="21">
+        <v>50</v>
+      </c>
+      <c r="O19" s="17"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="19">
+        <v>5.0003101000000001E-2</v>
+      </c>
+      <c r="E20" s="20">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <v>14</v>
+      </c>
+      <c r="G20" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H20" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="20">
+        <v>0.3297413986747797</v>
+      </c>
+      <c r="N20" s="21">
+        <v>50</v>
+      </c>
+      <c r="O20" s="17"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="19">
+        <v>2.0001313E-2</v>
+      </c>
+      <c r="E21" s="20">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="F21" s="21">
+        <v>14</v>
+      </c>
+      <c r="G21" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="20">
+        <v>0.24788473127645438</v>
+      </c>
+      <c r="N21" s="21">
+        <v>50</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="19">
+        <v>1.0001782000000001E-2</v>
+      </c>
+      <c r="E22" s="20">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="F22" s="21">
+        <v>14</v>
+      </c>
+      <c r="G22" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="20">
+        <v>0.24916964100788844</v>
+      </c>
+      <c r="N22" s="21">
+        <v>50</v>
+      </c>
+      <c r="O22" s="17"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="19">
+        <v>5.0012650000000004E-3</v>
+      </c>
+      <c r="E23" s="20">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F23" s="21">
+        <v>14</v>
+      </c>
+      <c r="G23" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="20">
+        <v>0.25063120316512866</v>
+      </c>
+      <c r="N23" s="21">
+        <v>50</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="19">
+        <v>2.0007419999999998E-3</v>
+      </c>
+      <c r="E24" s="20">
+        <v>2.86E-2</v>
+      </c>
+      <c r="F24" s="21">
+        <v>14</v>
+      </c>
+      <c r="G24" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="20">
+        <v>0.25037180352427868</v>
+      </c>
+      <c r="N24" s="21">
+        <v>50</v>
+      </c>
+      <c r="O24" s="17"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="19">
+        <v>1.0016179999999999E-3</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="F25" s="21">
+        <v>14</v>
+      </c>
+      <c r="G25" s="32">
+        <v>8012</v>
+      </c>
+      <c r="H25" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="20">
+        <v>0.25038320630585431</v>
+      </c>
+      <c r="N25" s="21">
+        <v>50</v>
+      </c>
+      <c r="O25" s="17"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:16" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.5" top="0.75" bottom="0.5" header="0.375" footer="0.25"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A&amp;RPage &amp;P of &amp;N</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;R&amp;T  &amp;D</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/tests/samples/MASSREF4tests.xlsx
+++ b/tests/samples/MASSREF4tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FEB06C-3023-4068-BF0E-588C887A53DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15BA390-8F10-4440-86CD-79F97FE87DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34620" yWindow="4180" windowWidth="10520" windowHeight="15020" tabRatio="843" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="843" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mettler A" sheetId="13" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="42">
   <si>
     <t>ID:</t>
   </si>
@@ -468,6 +468,9 @@
   <si>
     <t>W5 SS</t>
   </si>
+  <si>
+    <t>Expansion coeff (ppm/degC)</t>
+  </si>
 </sst>
 </file>
 
@@ -478,10 +481,17 @@
     <numFmt numFmtId="165" formatCode="0.000\ 000\ 000"/>
     <numFmt numFmtId="166" formatCode="0.000\ 0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -651,51 +661,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -707,112 +719,8 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,33 +730,107 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="5" xr:uid="{D9E1C84C-ADB0-45E1-BA2B-E481FD80DD4D}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4 2" xfId="6" xr:uid="{3FE5799E-33F5-4446-BB51-98FA7E3A2697}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -932,9 +914,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -972,9 +954,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,26 +989,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,26 +1024,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1252,31 +1200,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection sqref="A1:O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" customWidth="1"/>
-    <col min="12" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="60.7265625" customWidth="1"/>
-    <col min="16" max="16" width="0.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" customWidth="1"/>
+    <col min="17" max="17" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1290,21 +1238,22 @@
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1318,15 +1267,16 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1351,30 +1301,33 @@
       <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="O3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1390,26 +1343,29 @@
       <c r="F4" s="21">
         <v>33</v>
       </c>
-      <c r="G4" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H4" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="20">
+      <c r="G4" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I4" s="23">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="20">
         <v>427.00529078689408</v>
       </c>
-      <c r="N4" s="21">
-        <v>50</v>
-      </c>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1425,30 +1381,33 @@
       <c r="F5" s="21">
         <v>33</v>
       </c>
-      <c r="G5" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H5" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="23"/>
+      <c r="G5" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I5" s="23">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="20">
+      <c r="L5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20">
         <v>213.77517311418552</v>
       </c>
-      <c r="N5" s="21">
-        <v>50</v>
-      </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="O5" s="21">
+        <v>50</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="14"/>
@@ -1461,27 +1420,30 @@
       <c r="F6" s="21">
         <v>33</v>
       </c>
-      <c r="G6" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H6" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="23"/>
+      <c r="G6" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I6" s="23">
+        <v>48</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="20">
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20">
         <v>85.469199300098751</v>
       </c>
-      <c r="N6" s="21">
-        <v>50</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="O6" s="21">
+        <v>50</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1497,29 +1459,32 @@
       <c r="F7" s="21">
         <v>18</v>
       </c>
-      <c r="G7" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H7" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I7" s="21">
+      <c r="G7" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I7" s="23">
+        <v>48</v>
+      </c>
+      <c r="J7" s="21">
         <v>102</v>
       </c>
-      <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="20">
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20">
         <v>42.044148213514802</v>
       </c>
-      <c r="N7" s="21">
-        <v>50</v>
-      </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="O7" s="21">
+        <v>50</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="13">
@@ -1535,27 +1500,30 @@
       <c r="F8" s="21">
         <v>34</v>
       </c>
-      <c r="G8" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H8" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
+      <c r="G8" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H8" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I8" s="23">
+        <v>48</v>
+      </c>
+      <c r="J8" s="21"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="20">
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20">
         <v>20.95166201044681</v>
       </c>
-      <c r="N8" s="21">
-        <v>50</v>
-      </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="O8" s="21">
+        <v>50</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="13">
@@ -1571,27 +1539,30 @@
       <c r="F9" s="21">
         <v>34</v>
       </c>
-      <c r="G9" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H9" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
+      <c r="G9" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I9" s="23">
+        <v>48</v>
+      </c>
+      <c r="J9" s="21"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="20">
+      <c r="L9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20">
         <v>8.1087108716490821</v>
       </c>
-      <c r="N9" s="21">
-        <v>50</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="O9" s="21">
+        <v>50</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="13">
@@ -1607,27 +1578,30 @@
       <c r="F10" s="21">
         <v>34</v>
       </c>
-      <c r="G10" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H10" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
+      <c r="G10" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H10" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I10" s="23">
+        <v>48</v>
+      </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="20">
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20">
         <v>3.62698883372971</v>
       </c>
-      <c r="N10" s="21">
-        <v>50</v>
-      </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="O10" s="21">
+        <v>50</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="13">
@@ -1643,27 +1617,30 @@
       <c r="F11" s="21">
         <v>14</v>
       </c>
-      <c r="G11" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H11" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="23"/>
+      <c r="G11" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I11" s="23">
+        <v>48</v>
+      </c>
+      <c r="J11" s="21"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="20">
+      <c r="L11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20">
         <v>2.2746762406988821</v>
       </c>
-      <c r="N11" s="21">
-        <v>50</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="O11" s="21">
+        <v>50</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="13">
@@ -1679,27 +1656,30 @@
       <c r="F12" s="21">
         <v>14</v>
       </c>
-      <c r="G12" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H12" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
+      <c r="G12" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I12" s="23">
+        <v>48</v>
+      </c>
+      <c r="J12" s="21"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="20">
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20">
         <v>2.0414546284451194</v>
       </c>
-      <c r="N12" s="21">
-        <v>50</v>
-      </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="O12" s="21">
+        <v>50</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="13">
@@ -1715,27 +1695,30 @@
       <c r="F13" s="21">
         <v>14</v>
       </c>
-      <c r="G13" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H13" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="23"/>
+      <c r="G13" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I13" s="23">
+        <v>48</v>
+      </c>
+      <c r="J13" s="21"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="20">
+      <c r="L13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20">
         <v>1.655739109884163</v>
       </c>
-      <c r="N13" s="21">
-        <v>50</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="O13" s="21">
+        <v>50</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="13">
@@ -1751,27 +1734,30 @@
       <c r="F14" s="21">
         <v>14</v>
       </c>
-      <c r="G14" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H14" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="23"/>
+      <c r="G14" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H14" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I14" s="23">
+        <v>48</v>
+      </c>
+      <c r="J14" s="21"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="20">
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20">
         <v>1.3192603988599068</v>
       </c>
-      <c r="N14" s="21">
-        <v>50</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="O14" s="21">
+        <v>50</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="13">
@@ -1787,27 +1773,30 @@
       <c r="F15" s="21">
         <v>14</v>
       </c>
-      <c r="G15" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H15" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23"/>
+      <c r="G15" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I15" s="23">
+        <v>48</v>
+      </c>
+      <c r="J15" s="21"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="20">
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20">
         <v>0.99318125234017574</v>
       </c>
-      <c r="N15" s="21">
-        <v>50</v>
-      </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="O15" s="21">
+        <v>50</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="13">
@@ -1823,27 +1812,30 @@
       <c r="F16" s="21">
         <v>14</v>
       </c>
-      <c r="G16" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H16" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="23"/>
+      <c r="G16" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I16" s="23">
+        <v>48</v>
+      </c>
+      <c r="J16" s="21"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="20">
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20">
         <v>0.82908983831669292</v>
       </c>
-      <c r="N16" s="21">
-        <v>50</v>
-      </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="O16" s="21">
+        <v>50</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="13">
@@ -1859,27 +1851,30 @@
       <c r="F17" s="21">
         <v>14</v>
       </c>
-      <c r="G17" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H17" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="23"/>
+      <c r="G17" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I17" s="23">
+        <v>48</v>
+      </c>
+      <c r="J17" s="21"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="20">
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="20">
         <v>0.66581182777118042</v>
       </c>
-      <c r="N17" s="21">
-        <v>50</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="O17" s="21">
+        <v>50</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="13">
@@ -1895,27 +1890,30 @@
       <c r="F18" s="21">
         <v>14</v>
       </c>
-      <c r="G18" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H18" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
+      <c r="G18" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I18" s="23">
+        <v>48</v>
+      </c>
+      <c r="J18" s="21"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="20">
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20">
         <v>0.49959827861993278</v>
       </c>
-      <c r="N18" s="21">
-        <v>50</v>
-      </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="O18" s="21">
+        <v>50</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="13">
@@ -1931,27 +1929,30 @@
       <c r="F19" s="21">
         <v>14</v>
       </c>
-      <c r="G19" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H19" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="23"/>
+      <c r="G19" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I19" s="23">
+        <v>48</v>
+      </c>
+      <c r="J19" s="21"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="20">
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20">
         <v>0.41747052590572187</v>
       </c>
-      <c r="N19" s="21">
-        <v>50</v>
-      </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="O19" s="21">
+        <v>50</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="13">
@@ -1967,27 +1968,30 @@
       <c r="F20" s="21">
         <v>14</v>
       </c>
-      <c r="G20" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H20" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="23"/>
+      <c r="G20" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I20" s="23">
+        <v>48</v>
+      </c>
+      <c r="J20" s="21"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="20">
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20">
         <v>0.3297413986747797</v>
       </c>
-      <c r="N20" s="21">
-        <v>50</v>
-      </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="O20" s="21">
+        <v>50</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="13">
@@ -2003,27 +2007,30 @@
       <c r="F21" s="21">
         <v>14</v>
       </c>
-      <c r="G21" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H21" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="23"/>
+      <c r="G21" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I21" s="23">
+        <v>48</v>
+      </c>
+      <c r="J21" s="21"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="20">
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20">
         <v>0.24788473127645438</v>
       </c>
-      <c r="N21" s="21">
-        <v>50</v>
-      </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="O21" s="21">
+        <v>50</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="13">
@@ -2039,27 +2046,30 @@
       <c r="F22" s="21">
         <v>14</v>
       </c>
-      <c r="G22" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H22" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="23"/>
+      <c r="G22" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I22" s="23">
+        <v>48</v>
+      </c>
+      <c r="J22" s="21"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="20">
+      <c r="L22" s="23"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20">
         <v>0.24916964100788844</v>
       </c>
-      <c r="N22" s="21">
-        <v>50</v>
-      </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="O22" s="21">
+        <v>50</v>
+      </c>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="13">
@@ -2075,27 +2085,30 @@
       <c r="F23" s="21">
         <v>14</v>
       </c>
-      <c r="G23" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H23" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="23"/>
+      <c r="G23" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H23" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I23" s="23">
+        <v>48</v>
+      </c>
+      <c r="J23" s="21"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="20">
+      <c r="L23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20">
         <v>0.25063120316512866</v>
       </c>
-      <c r="N23" s="21">
-        <v>50</v>
-      </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="O23" s="21">
+        <v>50</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="13">
@@ -2111,27 +2124,30 @@
       <c r="F24" s="21">
         <v>14</v>
       </c>
-      <c r="G24" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H24" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="23"/>
+      <c r="G24" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I24" s="23">
+        <v>48</v>
+      </c>
+      <c r="J24" s="21"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="20">
+      <c r="L24" s="23"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20">
         <v>0.25037180352427868</v>
       </c>
-      <c r="N24" s="21">
-        <v>50</v>
-      </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="O24" s="21">
+        <v>50</v>
+      </c>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="13">
@@ -2147,26 +2163,29 @@
       <c r="F25" s="21">
         <v>14</v>
       </c>
-      <c r="G25" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H25" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="23"/>
+      <c r="G25" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I25" s="23">
+        <v>48</v>
+      </c>
+      <c r="J25" s="21"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="20">
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20">
         <v>0.25038320630585431</v>
       </c>
-      <c r="N25" s="21">
-        <v>50</v>
-      </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="21">
+        <v>50</v>
+      </c>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="15"/>
@@ -2175,16 +2194,17 @@
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="23"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="15"/>
@@ -2193,16 +2213,17 @@
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="23"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
@@ -2211,16 +2232,17 @@
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="23"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="15"/>
@@ -2229,16 +2251,17 @@
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="23"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="15"/>
@@ -2247,16 +2270,17 @@
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="23"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="15"/>
@@ -2265,16 +2289,17 @@
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="23"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="15"/>
@@ -2283,16 +2308,17 @@
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="23"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="23"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="15"/>
@@ -2301,16 +2327,17 @@
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="23"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="23"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="15"/>
@@ -2319,16 +2346,17 @@
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="23"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="15"/>
@@ -2337,16 +2365,17 @@
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="23"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="23"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="15"/>
@@ -2355,16 +2384,17 @@
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="23"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2374,16 +2404,17 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.5" top="0.75" bottom="0.5" header="0.375" footer="0.25"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2396,33 +2427,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" customWidth="1"/>
-    <col min="13" max="13" width="16.7265625" customWidth="1"/>
-    <col min="14" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="60.7265625" customWidth="1"/>
-    <col min="16" max="16" width="0.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" customWidth="1"/>
+    <col min="17" max="17" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2436,21 +2467,22 @@
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2464,15 +2496,16 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2497,30 +2530,33 @@
       <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="N3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -2536,26 +2572,29 @@
       <c r="F4" s="21">
         <v>33</v>
       </c>
-      <c r="G4" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H4" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="20">
+      <c r="G4" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I4" s="23">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="20">
         <v>223.0788500060012</v>
       </c>
-      <c r="N4" s="21">
-        <v>50</v>
-      </c>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -2571,29 +2610,32 @@
       <c r="F5" s="21">
         <v>33</v>
       </c>
-      <c r="G5" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H5" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="20">
+      <c r="G5" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I5" s="23">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="20">
         <v>111.37817725209906</v>
       </c>
-      <c r="N5" s="21">
-        <v>50</v>
-      </c>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="O5" s="21">
+        <v>50</v>
+      </c>
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="14"/>
@@ -2606,26 +2648,29 @@
       <c r="F6" s="21">
         <v>33</v>
       </c>
-      <c r="G6" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H6" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="20">
+      <c r="G6" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I6" s="23">
+        <v>48</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="20">
         <v>44.602201885108769</v>
       </c>
-      <c r="N6" s="21">
-        <v>50</v>
-      </c>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="O6" s="21">
+        <v>50</v>
+      </c>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -2641,28 +2686,31 @@
       <c r="F7" s="21">
         <v>18</v>
       </c>
-      <c r="G7" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H7" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I7" s="21">
+      <c r="G7" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I7" s="23">
+        <v>48</v>
+      </c>
+      <c r="J7" s="21">
         <v>99.7</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="20">
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="20">
         <v>22.835399427205122</v>
       </c>
-      <c r="N7" s="21">
-        <v>50</v>
-      </c>
-      <c r="O7" s="31"/>
-    </row>
-    <row r="8" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="O7" s="21">
+        <v>50</v>
+      </c>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="13">
@@ -2678,27 +2726,30 @@
       <c r="F8" s="21">
         <v>34</v>
       </c>
-      <c r="G8" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H8" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
+      <c r="G8" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H8" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I8" s="23">
+        <v>48</v>
+      </c>
+      <c r="J8" s="21"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="20">
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20">
         <v>11.304471327753458</v>
       </c>
-      <c r="N8" s="21">
-        <v>50</v>
-      </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="O8" s="21">
+        <v>50</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="13">
@@ -2714,27 +2765,30 @@
       <c r="F9" s="21">
         <v>34</v>
       </c>
-      <c r="G9" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H9" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
+      <c r="G9" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I9" s="23">
+        <v>48</v>
+      </c>
+      <c r="J9" s="21"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="20">
+      <c r="L9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20">
         <v>4.2562261453076013</v>
       </c>
-      <c r="N9" s="21">
-        <v>50</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="O9" s="21">
+        <v>50</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="13">
@@ -2750,27 +2804,30 @@
       <c r="F10" s="21">
         <v>34</v>
       </c>
-      <c r="G10" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H10" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
+      <c r="G10" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H10" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I10" s="23">
+        <v>48</v>
+      </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="20">
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20">
         <v>1.4160423722473849</v>
       </c>
-      <c r="N10" s="21">
-        <v>50</v>
-      </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="O10" s="21">
+        <v>50</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="13">
@@ -2786,27 +2843,30 @@
       <c r="F11" s="21">
         <v>14</v>
       </c>
-      <c r="G11" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H11" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="23"/>
+      <c r="G11" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I11" s="23">
+        <v>48</v>
+      </c>
+      <c r="J11" s="21"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="20">
+      <c r="L11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20">
         <v>1.0799865739906214</v>
       </c>
-      <c r="N11" s="21">
-        <v>50</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="O11" s="21">
+        <v>50</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="13">
@@ -2822,27 +2882,30 @@
       <c r="F12" s="21">
         <v>14</v>
       </c>
-      <c r="G12" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H12" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
+      <c r="G12" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I12" s="23">
+        <v>48</v>
+      </c>
+      <c r="J12" s="21"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="20">
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20">
         <v>1.1760153060228427</v>
       </c>
-      <c r="N12" s="21">
-        <v>50</v>
-      </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="O12" s="21">
+        <v>50</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="13">
@@ -2858,27 +2921,30 @@
       <c r="F13" s="21">
         <v>14</v>
       </c>
-      <c r="G13" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H13" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="23"/>
+      <c r="G13" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I13" s="23">
+        <v>48</v>
+      </c>
+      <c r="J13" s="21"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="20">
+      <c r="L13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20">
         <v>0.97337146044046308</v>
       </c>
-      <c r="N13" s="21">
-        <v>50</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="O13" s="21">
+        <v>50</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="13">
@@ -2894,27 +2960,30 @@
       <c r="F14" s="21">
         <v>14</v>
       </c>
-      <c r="G14" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H14" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="23"/>
+      <c r="G14" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H14" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I14" s="23">
+        <v>48</v>
+      </c>
+      <c r="J14" s="21"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="20">
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20">
         <v>0.77908471939834623</v>
       </c>
-      <c r="N14" s="21">
-        <v>50</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="O14" s="21">
+        <v>50</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13">
@@ -2930,27 +2999,30 @@
       <c r="F15" s="21">
         <v>14</v>
       </c>
-      <c r="G15" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H15" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23"/>
+      <c r="G15" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I15" s="23">
+        <v>48</v>
+      </c>
+      <c r="J15" s="21"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="20">
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20">
         <v>0.59063440468702799</v>
       </c>
-      <c r="N15" s="21">
-        <v>50</v>
-      </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="O15" s="21">
+        <v>50</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="13">
@@ -2966,27 +3038,30 @@
       <c r="F16" s="21">
         <v>14</v>
       </c>
-      <c r="G16" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H16" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="23"/>
+      <c r="G16" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I16" s="23">
+        <v>48</v>
+      </c>
+      <c r="J16" s="21"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="20">
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20">
         <v>0.49383191472402838</v>
       </c>
-      <c r="N16" s="21">
-        <v>50</v>
-      </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="O16" s="21">
+        <v>50</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="13">
@@ -3002,27 +3077,30 @@
       <c r="F17" s="21">
         <v>14</v>
       </c>
-      <c r="G17" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H17" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="23"/>
+      <c r="G17" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I17" s="23">
+        <v>48</v>
+      </c>
+      <c r="J17" s="21"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="20">
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="20">
         <v>0.40015045920253545</v>
       </c>
-      <c r="N17" s="21">
-        <v>50</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="O17" s="21">
+        <v>50</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="13">
@@ -3038,27 +3116,30 @@
       <c r="F18" s="21">
         <v>14</v>
       </c>
-      <c r="G18" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H18" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
+      <c r="G18" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I18" s="23">
+        <v>48</v>
+      </c>
+      <c r="J18" s="21"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="20">
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20">
         <v>0.30037549833500066</v>
       </c>
-      <c r="N18" s="21">
-        <v>50</v>
-      </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="O18" s="21">
+        <v>50</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="13">
@@ -3074,27 +3155,30 @@
       <c r="F19" s="21">
         <v>14</v>
       </c>
-      <c r="G19" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H19" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="23"/>
+      <c r="G19" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I19" s="23">
+        <v>48</v>
+      </c>
+      <c r="J19" s="21"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="20">
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20">
         <v>0.25015323303927134</v>
       </c>
-      <c r="N19" s="21">
-        <v>50</v>
-      </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="O19" s="21">
+        <v>50</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="13">
@@ -3110,27 +3194,30 @@
       <c r="F20" s="21">
         <v>14</v>
       </c>
-      <c r="G20" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H20" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="23"/>
+      <c r="G20" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I20" s="23">
+        <v>48</v>
+      </c>
+      <c r="J20" s="21"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="20">
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20">
         <v>0.18567011068020611</v>
       </c>
-      <c r="N20" s="21">
-        <v>50</v>
-      </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="O20" s="21">
+        <v>50</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="13">
@@ -3146,27 +3233,30 @@
       <c r="F21" s="21">
         <v>14</v>
       </c>
-      <c r="G21" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H21" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="23"/>
+      <c r="G21" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I21" s="23">
+        <v>48</v>
+      </c>
+      <c r="J21" s="21"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="20">
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20">
         <v>0.14261781094940421</v>
       </c>
-      <c r="N21" s="21">
-        <v>50</v>
-      </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="O21" s="21">
+        <v>50</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="13">
@@ -3182,27 +3272,30 @@
       <c r="F22" s="21">
         <v>14</v>
       </c>
-      <c r="G22" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H22" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="23"/>
+      <c r="G22" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I22" s="23">
+        <v>48</v>
+      </c>
+      <c r="J22" s="21"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="20">
+      <c r="L22" s="23"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20">
         <v>0.14378285711446967</v>
       </c>
-      <c r="N22" s="21">
-        <v>50</v>
-      </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="O22" s="21">
+        <v>50</v>
+      </c>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="13">
@@ -3218,27 +3311,30 @@
       <c r="F23" s="21">
         <v>14</v>
       </c>
-      <c r="G23" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H23" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="23"/>
+      <c r="G23" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H23" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I23" s="23">
+        <v>48</v>
+      </c>
+      <c r="J23" s="21"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="20">
+      <c r="L23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20">
         <v>0.14875147058096602</v>
       </c>
-      <c r="N23" s="21">
-        <v>50</v>
-      </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="O23" s="21">
+        <v>50</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="13">
@@ -3254,27 +3350,30 @@
       <c r="F24" s="21">
         <v>14</v>
       </c>
-      <c r="G24" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H24" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="23"/>
+      <c r="G24" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I24" s="23">
+        <v>48</v>
+      </c>
+      <c r="J24" s="21"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="20">
+      <c r="L24" s="23"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20">
         <v>0.1492850963760281</v>
       </c>
-      <c r="N24" s="21">
-        <v>50</v>
-      </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="O24" s="21">
+        <v>50</v>
+      </c>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="13">
@@ -3290,26 +3389,29 @@
       <c r="F25" s="21">
         <v>14</v>
       </c>
-      <c r="G25" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H25" s="32">
-        <v>1.45</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="23"/>
+      <c r="G25" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I25" s="23">
+        <v>48</v>
+      </c>
+      <c r="J25" s="21"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="20">
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20">
         <v>0.15032215405588092</v>
       </c>
-      <c r="N25" s="21">
-        <v>50</v>
-      </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="21">
+        <v>50</v>
+      </c>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="15"/>
@@ -3318,16 +3420,17 @@
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="23"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="15"/>
@@ -3336,16 +3439,17 @@
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="23"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
@@ -3354,16 +3458,17 @@
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="23"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="15"/>
@@ -3372,16 +3477,17 @@
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="23"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="15"/>
@@ -3390,16 +3496,17 @@
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="23"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="15"/>
@@ -3408,16 +3515,17 @@
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="23"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="15"/>
@@ -3426,16 +3534,17 @@
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="23"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="23"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="15"/>
@@ -3444,16 +3553,17 @@
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="23"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="23"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="15"/>
@@ -3462,16 +3572,17 @@
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="23"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="15"/>
@@ -3480,16 +3591,17 @@
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="23"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="23"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="15"/>
@@ -3498,16 +3610,17 @@
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="23"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3517,16 +3630,17 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.5" top="0.75" bottom="0.5" header="0.375" footer="0.25"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3545,12 +3659,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3564,12 +3678,12 @@
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3577,7 +3691,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -3598,7 +3712,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3638,15 +3752,15 @@
       <c r="M3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -3662,26 +3776,26 @@
       <c r="F4" s="21">
         <v>33</v>
       </c>
-      <c r="G4" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H4" s="32">
+      <c r="G4" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H4" s="23">
         <v>1.45</v>
       </c>
       <c r="I4" s="21"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="20">
         <v>427.00529078689408</v>
       </c>
       <c r="N4" s="21">
         <v>50</v>
       </c>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -3697,16 +3811,16 @@
       <c r="F5" s="21">
         <v>33</v>
       </c>
-      <c r="G5" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H5" s="32">
+      <c r="G5" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H5" s="23">
         <v>1.45</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="20">
         <v>213.77517311418552</v>
       </c>
@@ -3715,11 +3829,11 @@
       </c>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="14"/>
@@ -3732,16 +3846,16 @@
       <c r="F6" s="21">
         <v>33</v>
       </c>
-      <c r="G6" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H6" s="32">
+      <c r="G6" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H6" s="23">
         <v>1.45</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="20">
         <v>85.469199300098751</v>
       </c>
@@ -3750,8 +3864,8 @@
       </c>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -3767,10 +3881,10 @@
       <c r="F7" s="21">
         <v>18</v>
       </c>
-      <c r="G7" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H7" s="32">
+      <c r="G7" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H7" s="23">
         <v>1.45</v>
       </c>
       <c r="I7" s="21">
@@ -3778,7 +3892,7 @@
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="20">
         <v>42.044148213514802</v>
       </c>
@@ -3787,8 +3901,8 @@
       </c>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="13">
@@ -3804,16 +3918,16 @@
       <c r="F8" s="21">
         <v>34</v>
       </c>
-      <c r="G8" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H8" s="32">
+      <c r="G8" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H8" s="23">
         <v>1.45</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="20">
         <v>20.95166201044681</v>
       </c>
@@ -3822,8 +3936,8 @@
       </c>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="13">
@@ -3839,16 +3953,16 @@
       <c r="F9" s="21">
         <v>34</v>
       </c>
-      <c r="G9" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H9" s="32">
+      <c r="G9" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H9" s="23">
         <v>1.45</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="20">
         <v>8.1087108716490821</v>
       </c>
@@ -3857,8 +3971,8 @@
       </c>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="13">
@@ -3874,16 +3988,16 @@
       <c r="F10" s="21">
         <v>34</v>
       </c>
-      <c r="G10" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H10" s="32">
+      <c r="G10" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H10" s="23">
         <v>1.45</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="20">
         <v>3.62698883372971</v>
       </c>
@@ -3892,8 +4006,8 @@
       </c>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="13">
@@ -3909,16 +4023,16 @@
       <c r="F11" s="21">
         <v>14</v>
       </c>
-      <c r="G11" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H11" s="32">
+      <c r="G11" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H11" s="23">
         <v>1.45</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="20">
         <v>2.2746762406988821</v>
       </c>
@@ -3927,8 +4041,8 @@
       </c>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="13">
@@ -3944,16 +4058,16 @@
       <c r="F12" s="21">
         <v>14</v>
       </c>
-      <c r="G12" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H12" s="32">
+      <c r="G12" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H12" s="23">
         <v>1.45</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="20">
         <v>2.0414546284451194</v>
       </c>
@@ -3962,8 +4076,8 @@
       </c>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="13">
@@ -3979,16 +4093,16 @@
       <c r="F13" s="21">
         <v>14</v>
       </c>
-      <c r="G13" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H13" s="32">
+      <c r="G13" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H13" s="23">
         <v>1.45</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="20">
         <v>1.655739109884163</v>
       </c>
@@ -3997,8 +4111,8 @@
       </c>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="13">
@@ -4014,16 +4128,16 @@
       <c r="F14" s="21">
         <v>14</v>
       </c>
-      <c r="G14" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H14" s="32">
+      <c r="G14" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H14" s="23">
         <v>1.45</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="20">
         <v>1.3192603988599068</v>
       </c>
@@ -4032,8 +4146,8 @@
       </c>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="13">
@@ -4049,16 +4163,16 @@
       <c r="F15" s="21">
         <v>14</v>
       </c>
-      <c r="G15" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H15" s="32">
+      <c r="G15" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H15" s="23">
         <v>1.45</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="20">
         <v>0.99318125234017574</v>
       </c>
@@ -4067,8 +4181,8 @@
       </c>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="13">
@@ -4084,16 +4198,16 @@
       <c r="F16" s="21">
         <v>14</v>
       </c>
-      <c r="G16" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H16" s="32">
+      <c r="G16" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H16" s="23">
         <v>1.45</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="20">
         <v>0.82908983831669292</v>
       </c>
@@ -4102,8 +4216,8 @@
       </c>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="13">
@@ -4119,16 +4233,16 @@
       <c r="F17" s="21">
         <v>14</v>
       </c>
-      <c r="G17" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H17" s="32">
+      <c r="G17" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H17" s="23">
         <v>1.45</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="20">
         <v>0.66581182777118042</v>
       </c>
@@ -4137,8 +4251,8 @@
       </c>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="13">
@@ -4154,16 +4268,16 @@
       <c r="F18" s="21">
         <v>14</v>
       </c>
-      <c r="G18" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H18" s="32">
+      <c r="G18" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H18" s="23">
         <v>1.45</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="20">
         <v>0.49959827861993278</v>
       </c>
@@ -4172,8 +4286,8 @@
       </c>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="13">
@@ -4189,16 +4303,16 @@
       <c r="F19" s="21">
         <v>14</v>
       </c>
-      <c r="G19" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H19" s="32">
+      <c r="G19" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H19" s="23">
         <v>1.45</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="20">
         <v>0.41747052590572187</v>
       </c>
@@ -4207,8 +4321,8 @@
       </c>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="13">
@@ -4224,16 +4338,16 @@
       <c r="F20" s="21">
         <v>14</v>
       </c>
-      <c r="G20" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H20" s="32">
+      <c r="G20" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H20" s="23">
         <v>1.45</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="20">
         <v>0.3297413986747797</v>
       </c>
@@ -4242,8 +4356,8 @@
       </c>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="13">
@@ -4259,16 +4373,16 @@
       <c r="F21" s="21">
         <v>14</v>
       </c>
-      <c r="G21" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H21" s="32">
+      <c r="G21" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H21" s="23">
         <v>1.45</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="20">
         <v>0.24788473127645438</v>
       </c>
@@ -4277,8 +4391,8 @@
       </c>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="13">
@@ -4294,16 +4408,16 @@
       <c r="F22" s="21">
         <v>14</v>
       </c>
-      <c r="G22" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H22" s="32">
+      <c r="G22" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H22" s="23">
         <v>1.45</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="20">
         <v>0.24916964100788844</v>
       </c>
@@ -4312,8 +4426,8 @@
       </c>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="13">
@@ -4329,16 +4443,16 @@
       <c r="F23" s="21">
         <v>14</v>
       </c>
-      <c r="G23" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H23" s="32">
+      <c r="G23" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H23" s="23">
         <v>1.45</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="20">
         <v>0.25063120316512866</v>
       </c>
@@ -4347,8 +4461,8 @@
       </c>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="13">
@@ -4364,16 +4478,16 @@
       <c r="F24" s="21">
         <v>14</v>
       </c>
-      <c r="G24" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H24" s="32">
+      <c r="G24" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H24" s="23">
         <v>1.45</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="L24" s="21"/>
       <c r="M24" s="20">
         <v>0.25037180352427868</v>
       </c>
@@ -4382,8 +4496,8 @@
       </c>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="13">
@@ -4399,16 +4513,16 @@
       <c r="F25" s="21">
         <v>14</v>
       </c>
-      <c r="G25" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H25" s="32">
+      <c r="G25" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H25" s="23">
         <v>1.45</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="20">
         <v>0.25038320630585431</v>
       </c>
@@ -4424,32 +4538,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE9B5D4-F934-48BA-9C7B-67137F0D6D60}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" customWidth="1"/>
-    <col min="12" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="60.7265625" customWidth="1"/>
-    <col min="16" max="16" width="0.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" customWidth="1"/>
+    <col min="17" max="17" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -4459,27 +4573,28 @@
       <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>35</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
@@ -4490,76 +4605,80 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="40" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="K3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="L3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="O3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="P3" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49">
+      <c r="C4" s="14"/>
+      <c r="D4" s="19">
         <v>10000.003261553</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="20">
         <v>155.87700000000001</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <v>33</v>
       </c>
       <c r="G4" s="23">
@@ -4568,69 +4687,75 @@
       <c r="H4" s="23">
         <v>0.12871287128712872</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="50">
+      <c r="I4" s="23">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="20">
         <f>5000/20</f>
         <v>250</v>
       </c>
-      <c r="N4" s="24">
-        <v>50</v>
-      </c>
-      <c r="O4" s="52"/>
-    </row>
-    <row r="5" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="45"/>
+    </row>
+    <row r="5" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49">
+      <c r="C5" s="14"/>
+      <c r="D5" s="19">
         <v>5000.0027794139996</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="20">
         <v>78.076999999999998</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>33</v>
       </c>
       <c r="G5" s="23">
         <v>8012</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="23">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="50">
+      <c r="L5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20">
         <f>2500/20</f>
         <v>125</v>
       </c>
-      <c r="N5" s="24">
-        <v>50</v>
-      </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="O5" s="21">
+        <v>50</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49">
+      <c r="C6" s="14"/>
+      <c r="D6" s="19">
         <v>1999.9995779999999</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="20">
         <v>31.314</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>33</v>
       </c>
       <c r="G6" s="23">
@@ -4639,363 +4764,385 @@
       <c r="H6" s="23">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="23"/>
+      <c r="I6" s="23">
+        <v>48</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="50">
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20">
         <f>1000/20</f>
         <v>50</v>
       </c>
-      <c r="N6" s="24">
-        <v>50</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="O6" s="21">
+        <v>50</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
       <c r="B13" s="13"/>
       <c r="C13" s="15"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
       <c r="B14" s="13"/>
       <c r="C14" s="15"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
       <c r="B16" s="13"/>
       <c r="C16" s="15"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
       <c r="B17" s="13"/>
       <c r="C17" s="15"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
       <c r="B18" s="13"/>
       <c r="C18" s="15"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
       <c r="B19" s="13"/>
       <c r="C19" s="15"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
       <c r="B21" s="13"/>
       <c r="C21" s="15"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
       <c r="B22" s="13"/>
       <c r="C22" s="15"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
       <c r="B23" s="13"/>
       <c r="C23" s="15"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
       <c r="B24" s="13"/>
       <c r="C24" s="15"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="15"/>
@@ -5004,16 +5151,17 @@
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="23"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="15"/>
@@ -5022,16 +5170,17 @@
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="23"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
@@ -5040,16 +5189,17 @@
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="23"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="15"/>
@@ -5058,16 +5208,17 @@
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="23"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="15"/>
@@ -5076,16 +5227,17 @@
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="23"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="15"/>
@@ -5094,16 +5246,17 @@
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="23"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="15"/>
@@ -5112,16 +5265,17 @@
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="23"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="23"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="15"/>
@@ -5130,16 +5284,17 @@
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="23"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="23"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="15"/>
@@ -5148,16 +5303,17 @@
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="23"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="15"/>
@@ -5166,16 +5322,17 @@
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="23"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="23"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="15"/>
@@ -5184,16 +5341,17 @@
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="23"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -5203,13 +5361,14 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="1"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>
@@ -5225,62 +5384,63 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1FE45F-5790-4499-A796-54814D075F0F}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" customWidth="1"/>
-    <col min="12" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="60.7265625" customWidth="1"/>
-    <col min="16" max="16" width="0.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" customWidth="1"/>
+    <col min="17" max="17" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>35</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
@@ -5291,76 +5451,80 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="40" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="K3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="L3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="O3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="P3" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="19">
         <v>10000.00503</v>
       </c>
       <c r="E4" s="20">
         <v>155.87700000000001</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <v>33</v>
       </c>
       <c r="G4" s="23">
@@ -5369,69 +5533,75 @@
       <c r="H4" s="23">
         <v>0.12871287128712872</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="50">
+      <c r="I4" s="23">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="20">
         <f>5000/20</f>
         <v>250</v>
       </c>
-      <c r="N4" s="24">
-        <v>50</v>
-      </c>
-      <c r="O4" s="52"/>
-    </row>
-    <row r="5" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="45"/>
+    </row>
+    <row r="5" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49">
+      <c r="C5" s="14"/>
+      <c r="D5" s="19">
         <v>5000.0027794139996</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="20">
         <v>78.076999999999998</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>33</v>
       </c>
       <c r="G5" s="23">
         <v>8012</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="23">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="50">
+      <c r="L5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20">
         <f>2500/20</f>
         <v>125</v>
       </c>
-      <c r="N5" s="24">
-        <v>50</v>
-      </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="O5" s="21">
+        <v>50</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49">
+      <c r="C6" s="14"/>
+      <c r="D6" s="19">
         <v>1999.9995779999999</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="20">
         <v>31.314</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>33</v>
       </c>
       <c r="G6" s="23">
@@ -5440,363 +5610,385 @@
       <c r="H6" s="23">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="23"/>
+      <c r="I6" s="23">
+        <v>48</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="50">
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20">
         <f>1000/20</f>
         <v>50</v>
       </c>
-      <c r="N6" s="24">
-        <v>50</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="O6" s="21">
+        <v>50</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
       <c r="B13" s="13"/>
       <c r="C13" s="15"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
       <c r="B14" s="13"/>
       <c r="C14" s="15"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
       <c r="B16" s="13"/>
       <c r="C16" s="15"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
       <c r="B17" s="13"/>
       <c r="C17" s="15"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
       <c r="B18" s="13"/>
       <c r="C18" s="15"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
       <c r="B19" s="13"/>
       <c r="C19" s="15"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
       <c r="B21" s="13"/>
       <c r="C21" s="15"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
       <c r="B22" s="13"/>
       <c r="C22" s="15"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
       <c r="B23" s="13"/>
       <c r="C23" s="15"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
       <c r="B24" s="13"/>
       <c r="C24" s="15"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="15"/>
@@ -5805,16 +5997,17 @@
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="23"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="15"/>
@@ -5823,16 +6016,17 @@
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="23"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
@@ -5841,16 +6035,17 @@
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="23"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="15"/>
@@ -5859,16 +6054,17 @@
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="23"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="15"/>
@@ -5877,16 +6073,17 @@
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="23"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="15"/>
@@ -5895,16 +6092,17 @@
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="23"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="15"/>
@@ -5913,16 +6111,17 @@
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="23"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="23"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="15"/>
@@ -5931,16 +6130,17 @@
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="23"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="23"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="15"/>
@@ -5949,16 +6149,17 @@
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="23"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="15"/>
@@ -5967,16 +6168,17 @@
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="23"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="23"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="15"/>
@@ -5985,16 +6187,17 @@
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="23"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6004,13 +6207,14 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="1"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>
@@ -6028,29 +6232,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F65443D-EC23-4028-B732-6F2DA2E7A0B6}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" customWidth="1"/>
-    <col min="12" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="60.7265625" customWidth="1"/>
-    <col min="16" max="16" width="0.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="60.7109375" customWidth="1"/>
+    <col min="16" max="16" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6064,12 +6268,12 @@
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="33">
+      <c r="F1" s="24"/>
+      <c r="G1" s="30">
         <v>35065</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -6078,7 +6282,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -6100,7 +6304,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -6140,15 +6344,15 @@
       <c r="M3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="13">
@@ -6164,16 +6368,16 @@
       <c r="F4" s="21">
         <v>34</v>
       </c>
-      <c r="G4" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H4" s="32">
+      <c r="G4" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H4" s="23">
         <v>1.45</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="20">
         <v>0</v>
       </c>
@@ -6183,15 +6387,15 @@
       <c r="O4" s="17"/>
       <c r="P4" s="10"/>
     </row>
-    <row r="5" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="13">
         <v>50</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="57">
+      <c r="D5" s="48">
         <v>50.000053126000005</v>
       </c>
       <c r="E5">
@@ -6200,16 +6404,16 @@
       <c r="F5" s="21">
         <v>14</v>
       </c>
-      <c r="G5" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H5" s="32">
+      <c r="G5" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H5" s="23">
         <v>1.45</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="20">
         <v>0</v>
       </c>
@@ -6219,15 +6423,15 @@
       <c r="O5" s="17"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="13">
         <v>20</v>
       </c>
       <c r="C6" s="15"/>
-      <c r="D6" s="57">
+      <c r="D6" s="48">
         <v>19.999998345999998</v>
       </c>
       <c r="E6">
@@ -6236,16 +6440,16 @@
       <c r="F6" s="21">
         <v>14</v>
       </c>
-      <c r="G6" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H6" s="32">
+      <c r="G6" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H6" s="23">
         <v>1.45</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="20">
         <v>0</v>
       </c>
@@ -6255,15 +6459,15 @@
       <c r="O6" s="17"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="13">
         <v>10</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="57">
+      <c r="D7" s="48">
         <v>10.000010290999999</v>
       </c>
       <c r="E7">
@@ -6272,16 +6476,16 @@
       <c r="F7" s="21">
         <v>14</v>
       </c>
-      <c r="G7" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H7" s="32">
+      <c r="G7" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H7" s="23">
         <v>1.45</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="20">
         <v>0</v>
       </c>
@@ -6291,15 +6495,15 @@
       <c r="O7" s="17"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="13">
         <v>5</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="57">
+      <c r="D8" s="48">
         <v>4.9999977819999994</v>
       </c>
       <c r="E8">
@@ -6308,16 +6512,16 @@
       <c r="F8" s="21">
         <v>14</v>
       </c>
-      <c r="G8" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H8" s="32">
+      <c r="G8" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H8" s="23">
         <v>1.45</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="20">
         <v>0</v>
       </c>
@@ -6327,15 +6531,15 @@
       <c r="O8" s="17"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="13">
         <v>2</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="57">
+      <c r="D9" s="48">
         <v>1.9999962910000002</v>
       </c>
       <c r="E9">
@@ -6344,16 +6548,16 @@
       <c r="F9" s="21">
         <v>14</v>
       </c>
-      <c r="G9" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H9" s="32">
+      <c r="G9" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H9" s="23">
         <v>1.45</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="20">
         <v>0</v>
       </c>
@@ -6363,15 +6567,15 @@
       <c r="O9" s="17"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="57">
+      <c r="D10" s="48">
         <v>0.99995660099999994</v>
       </c>
       <c r="E10">
@@ -6380,16 +6584,16 @@
       <c r="F10" s="21">
         <v>14</v>
       </c>
-      <c r="G10" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H10" s="32">
+      <c r="G10" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H10" s="23">
         <v>1.45</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="20">
         <v>0</v>
       </c>
@@ -6399,7 +6603,7 @@
       <c r="O10" s="17"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
@@ -6411,13 +6615,13 @@
       <c r="I11" s="21"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="24"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="17"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
@@ -6429,13 +6633,13 @@
       <c r="I12" s="21"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="24"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="17"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="15"/>
@@ -6447,13 +6651,13 @@
       <c r="I13" s="21"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="24"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="17"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="15"/>
@@ -6465,13 +6669,13 @@
       <c r="I14" s="21"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="24"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="17"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
@@ -6483,13 +6687,13 @@
       <c r="I15" s="21"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="24"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="17"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="15"/>
@@ -6501,13 +6705,13 @@
       <c r="I16" s="21"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="24"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="17"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="15"/>
@@ -6519,13 +6723,13 @@
       <c r="I17" s="21"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="24"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="17"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="15"/>
@@ -6537,13 +6741,13 @@
       <c r="I18" s="21"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="24"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="17"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="15"/>
@@ -6555,13 +6759,13 @@
       <c r="I19" s="21"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="24"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="17"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
@@ -6573,13 +6777,13 @@
       <c r="I20" s="21"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="24"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="17"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="15"/>
@@ -6591,13 +6795,13 @@
       <c r="I21" s="21"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="37"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="34"/>
       <c r="O21" s="17"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6634,25 +6838,25 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" customWidth="1"/>
-    <col min="12" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="60.7265625" customWidth="1"/>
-    <col min="16" max="16" width="0.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="60.7109375" customWidth="1"/>
+    <col min="16" max="16" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6666,12 +6870,12 @@
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="33">
+      <c r="F1" s="24"/>
+      <c r="G1" s="30">
         <v>35065</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -6680,7 +6884,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -6702,7 +6906,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -6742,15 +6946,15 @@
       <c r="M3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -6766,26 +6970,26 @@
       <c r="F4" s="21">
         <v>33</v>
       </c>
-      <c r="G4" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H4" s="32">
+      <c r="G4" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H4" s="23">
         <v>1.45</v>
       </c>
       <c r="I4" s="21"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="20">
         <v>427.00529078689408</v>
       </c>
       <c r="N4" s="21">
         <v>50</v>
       </c>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -6801,16 +7005,16 @@
       <c r="F5" s="21">
         <v>33</v>
       </c>
-      <c r="G5" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H5" s="32">
+      <c r="G5" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H5" s="23">
         <v>1.45</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="20">
         <v>213.77517311418552</v>
       </c>
@@ -6820,11 +7024,11 @@
       <c r="O5" s="17"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="14"/>
@@ -6837,16 +7041,16 @@
       <c r="F6" s="21">
         <v>33</v>
       </c>
-      <c r="G6" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H6" s="32">
+      <c r="G6" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H6" s="23">
         <v>1.45</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="20">
         <v>85.469199300098751</v>
       </c>
@@ -6856,8 +7060,8 @@
       <c r="O6" s="17"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -6873,10 +7077,10 @@
       <c r="F7" s="21">
         <v>18</v>
       </c>
-      <c r="G7" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H7" s="32">
+      <c r="G7" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H7" s="23">
         <v>1.45</v>
       </c>
       <c r="I7" s="21">
@@ -6884,7 +7088,7 @@
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="20">
         <v>42.044148213514802</v>
       </c>
@@ -6894,8 +7098,8 @@
       <c r="O7" s="17"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="13">
@@ -6911,16 +7115,16 @@
       <c r="F8" s="21">
         <v>34</v>
       </c>
-      <c r="G8" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H8" s="32">
+      <c r="G8" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H8" s="23">
         <v>1.45</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="20">
         <v>20.95166201044681</v>
       </c>
@@ -6930,8 +7134,8 @@
       <c r="O8" s="17"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="13">
@@ -6947,16 +7151,16 @@
       <c r="F9" s="21">
         <v>34</v>
       </c>
-      <c r="G9" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H9" s="32">
+      <c r="G9" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H9" s="23">
         <v>1.45</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="20">
         <v>8.1087108716490821</v>
       </c>
@@ -6966,8 +7170,8 @@
       <c r="O9" s="17"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="13">
@@ -6983,16 +7187,16 @@
       <c r="F10" s="21">
         <v>34</v>
       </c>
-      <c r="G10" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H10" s="32">
+      <c r="G10" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H10" s="23">
         <v>1.45</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="20">
         <v>3.62698883372971</v>
       </c>
@@ -7002,8 +7206,8 @@
       <c r="O10" s="17"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="13">
@@ -7019,16 +7223,16 @@
       <c r="F11" s="21">
         <v>14</v>
       </c>
-      <c r="G11" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H11" s="32">
+      <c r="G11" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H11" s="23">
         <v>1.45</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="20">
         <v>2.2746762406988821</v>
       </c>
@@ -7038,8 +7242,8 @@
       <c r="O11" s="17"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="13">
@@ -7055,16 +7259,16 @@
       <c r="F12" s="21">
         <v>14</v>
       </c>
-      <c r="G12" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H12" s="32">
+      <c r="G12" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H12" s="23">
         <v>1.45</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="20">
         <v>2.0414546284451194</v>
       </c>
@@ -7074,8 +7278,8 @@
       <c r="O12" s="17"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="13">
@@ -7091,16 +7295,16 @@
       <c r="F13" s="21">
         <v>14</v>
       </c>
-      <c r="G13" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H13" s="32">
+      <c r="G13" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H13" s="23">
         <v>1.45</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="20">
         <v>1.655739109884163</v>
       </c>
@@ -7110,8 +7314,8 @@
       <c r="O13" s="17"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="13">
@@ -7127,16 +7331,16 @@
       <c r="F14" s="21">
         <v>14</v>
       </c>
-      <c r="G14" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H14" s="32">
+      <c r="G14" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H14" s="23">
         <v>1.45</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="20">
         <v>1.3192603988599068</v>
       </c>
@@ -7146,8 +7350,8 @@
       <c r="O14" s="17"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="13">
@@ -7163,16 +7367,16 @@
       <c r="F15" s="21">
         <v>14</v>
       </c>
-      <c r="G15" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H15" s="32">
+      <c r="G15" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H15" s="23">
         <v>1.45</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="20">
         <v>0.99318125234017574</v>
       </c>
@@ -7182,8 +7386,8 @@
       <c r="O15" s="17"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="13">
@@ -7199,16 +7403,16 @@
       <c r="F16" s="21">
         <v>14</v>
       </c>
-      <c r="G16" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H16" s="32">
+      <c r="G16" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H16" s="23">
         <v>1.45</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="20">
         <v>0.82908983831669292</v>
       </c>
@@ -7218,8 +7422,8 @@
       <c r="O16" s="17"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="13">
@@ -7235,16 +7439,16 @@
       <c r="F17" s="21">
         <v>14</v>
       </c>
-      <c r="G17" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H17" s="32">
+      <c r="G17" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H17" s="23">
         <v>1.45</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="20">
         <v>0.66581182777118042</v>
       </c>
@@ -7254,8 +7458,8 @@
       <c r="O17" s="17"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="13">
@@ -7271,16 +7475,16 @@
       <c r="F18" s="21">
         <v>14</v>
       </c>
-      <c r="G18" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H18" s="32">
+      <c r="G18" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H18" s="23">
         <v>1.45</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="20">
         <v>0.49959827861993278</v>
       </c>
@@ -7290,8 +7494,8 @@
       <c r="O18" s="17"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="13">
@@ -7307,16 +7511,16 @@
       <c r="F19" s="21">
         <v>14</v>
       </c>
-      <c r="G19" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H19" s="32">
+      <c r="G19" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H19" s="23">
         <v>1.45</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="20">
         <v>0.41747052590572187</v>
       </c>
@@ -7326,8 +7530,8 @@
       <c r="O19" s="17"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="13">
@@ -7343,16 +7547,16 @@
       <c r="F20" s="21">
         <v>14</v>
       </c>
-      <c r="G20" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H20" s="32">
+      <c r="G20" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H20" s="23">
         <v>1.45</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="20">
         <v>0.3297413986747797</v>
       </c>
@@ -7362,8 +7566,8 @@
       <c r="O20" s="17"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="13">
@@ -7379,16 +7583,16 @@
       <c r="F21" s="21">
         <v>14</v>
       </c>
-      <c r="G21" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H21" s="32">
+      <c r="G21" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H21" s="23">
         <v>1.45</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="20">
         <v>0.24788473127645438</v>
       </c>
@@ -7398,8 +7602,8 @@
       <c r="O21" s="17"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="13">
@@ -7415,16 +7619,16 @@
       <c r="F22" s="21">
         <v>14</v>
       </c>
-      <c r="G22" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H22" s="32">
+      <c r="G22" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H22" s="23">
         <v>1.45</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="20">
         <v>0.24916964100788844</v>
       </c>
@@ -7434,8 +7638,8 @@
       <c r="O22" s="17"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="13">
@@ -7451,16 +7655,16 @@
       <c r="F23" s="21">
         <v>14</v>
       </c>
-      <c r="G23" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H23" s="32">
+      <c r="G23" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H23" s="23">
         <v>1.45</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="20">
         <v>0.25063120316512866</v>
       </c>
@@ -7470,8 +7674,8 @@
       <c r="O23" s="17"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="13">
@@ -7487,16 +7691,16 @@
       <c r="F24" s="21">
         <v>14</v>
       </c>
-      <c r="G24" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H24" s="32">
+      <c r="G24" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H24" s="23">
         <v>1.45</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="L24" s="21"/>
       <c r="M24" s="20">
         <v>0.25037180352427868</v>
       </c>
@@ -7506,8 +7710,8 @@
       <c r="O24" s="17"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="13">
@@ -7523,16 +7727,16 @@
       <c r="F25" s="21">
         <v>14</v>
       </c>
-      <c r="G25" s="32">
-        <v>8012</v>
-      </c>
-      <c r="H25" s="32">
+      <c r="G25" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H25" s="23">
         <v>1.45</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="20">
         <v>0.25038320630585431</v>
       </c>
@@ -7542,7 +7746,7 @@
       <c r="O25" s="17"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="15"/>
@@ -7554,13 +7758,13 @@
       <c r="I26" s="21"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="24"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="21"/>
       <c r="O26" s="17"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="15"/>
@@ -7572,13 +7776,13 @@
       <c r="I27" s="21"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="24"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="17"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
@@ -7590,13 +7794,13 @@
       <c r="I28" s="21"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="24"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="21"/>
       <c r="O28" s="17"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="15"/>
@@ -7608,13 +7812,13 @@
       <c r="I29" s="21"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="24"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="17"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="15"/>
@@ -7626,13 +7830,13 @@
       <c r="I30" s="21"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="24"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="21"/>
       <c r="O30" s="17"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="15"/>
@@ -7644,13 +7848,13 @@
       <c r="I31" s="21"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="21"/>
       <c r="O31" s="17"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="15"/>
@@ -7662,13 +7866,13 @@
       <c r="I32" s="21"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="24"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="21"/>
       <c r="O32" s="17"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="15"/>
@@ -7680,13 +7884,13 @@
       <c r="I33" s="21"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="24"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="17"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="15"/>
@@ -7698,13 +7902,13 @@
       <c r="I34" s="21"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="24"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="21"/>
       <c r="O34" s="17"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="15"/>
@@ -7716,13 +7920,13 @@
       <c r="I35" s="21"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="24"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="17"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="1:16" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="15"/>
@@ -7734,13 +7938,13 @@
       <c r="I36" s="21"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="37"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="34"/>
       <c r="O36" s="17"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>

--- a/tests/samples/MASSREF4tests.xlsx
+++ b/tests/samples/MASSREF4tests.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15BA390-8F10-4440-86CD-79F97FE87DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFEBE73-5E73-445E-934F-18CD3DE34C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="843" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="843" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mettler A" sheetId="13" r:id="rId1"/>
     <sheet name="Mettler B" sheetId="14" r:id="rId2"/>
     <sheet name="CUSTOM" sheetId="15" r:id="rId3"/>
     <sheet name="Mettler A (2)" sheetId="17" r:id="rId4"/>
-    <sheet name="Mettler B (2)" sheetId="18" r:id="rId5"/>
-    <sheet name="Mettler 76a" sheetId="20" r:id="rId6"/>
-    <sheet name="W5 SS" sheetId="21" r:id="rId7"/>
+    <sheet name="Constraints" sheetId="22" r:id="rId5"/>
+    <sheet name="Mettler B (2)" sheetId="18" r:id="rId6"/>
+    <sheet name="Mettler 76a" sheetId="20" r:id="rId7"/>
+    <sheet name="W5 SS" sheetId="21" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Mettler 76a'!$A:$C,'Mettler 76a'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Mettler 76a'!$A:$C,'Mettler 76a'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Mettler A'!$A:$C,'Mettler A'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Mettler A (2)'!$A:$C,'Mettler A (2)'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Mettler B'!$A:$C,'Mettler B'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mettler B (2)'!$A:$C,'Mettler B (2)'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'W5 SS'!$A:$C,'W5 SS'!$1:$3</definedName>
-    <definedName name="WeightSet" localSheetId="5">'Mettler 76a'!$B$4:$H$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Mettler B (2)'!$A:$C,'Mettler B (2)'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'W5 SS'!$A:$C,'W5 SS'!$1:$3</definedName>
+    <definedName name="WeightSet" localSheetId="6">'Mettler 76a'!$B$4:$H$21</definedName>
     <definedName name="WeightSet" localSheetId="0">'Mettler A'!$B$5:$H$36</definedName>
     <definedName name="WeightSet" localSheetId="3">'Mettler A (2)'!$B$5:$H$36</definedName>
     <definedName name="WeightSet" localSheetId="1">'Mettler B'!$B$8:$H$36</definedName>
-    <definedName name="WeightSet" localSheetId="4">'Mettler B (2)'!$B$8:$H$36</definedName>
-    <definedName name="WeightSet" localSheetId="6">'W5 SS'!$B$5:$H$36</definedName>
+    <definedName name="WeightSet" localSheetId="5">'Mettler B (2)'!$B$8:$H$36</definedName>
+    <definedName name="WeightSet" localSheetId="7">'W5 SS'!$B$5:$H$36</definedName>
     <definedName name="WeightSet">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -218,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="48">
   <si>
     <t>ID:</t>
   </si>
@@ -471,6 +472,84 @@
   <si>
     <t>Expansion coeff (ppm/degC)</t>
   </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <r>
+      <t>Std Uncert (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>g)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dens. 20°C (kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Std Uncert (kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +560,7 @@
     <numFmt numFmtId="165" formatCode="0.000\ 000\ 000"/>
     <numFmt numFmtId="166" formatCode="0.000\ 0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -565,6 +644,11 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -670,7 +754,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -821,6 +905,30 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1203,7 +1311,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2538,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3653,18 +3761,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D676A-B30C-42EC-A573-74543F6A241F}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3684,14 +3793,15 @@
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -3705,14 +3815,15 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3737,29 +3848,32 @@
       <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="O3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
@@ -3782,19 +3896,22 @@
       <c r="H4" s="23">
         <v>1.45</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="27"/>
+      <c r="I4" s="23">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="20">
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="20">
         <v>427.00529078689408</v>
       </c>
-      <c r="N4" s="21">
-        <v>50</v>
-      </c>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
@@ -3817,19 +3934,22 @@
       <c r="H5" s="23">
         <v>1.45</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="23">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="20">
+      <c r="L5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20">
         <v>213.77517311418552</v>
       </c>
-      <c r="N5" s="21">
-        <v>50</v>
-      </c>
-      <c r="O5" s="17"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" s="21">
+        <v>50</v>
+      </c>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
@@ -3852,19 +3972,22 @@
       <c r="H6" s="23">
         <v>1.45</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="23"/>
+      <c r="I6" s="23">
+        <v>48</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20">
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20">
         <v>85.469199300098751</v>
       </c>
-      <c r="N6" s="21">
-        <v>50</v>
-      </c>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="21">
+        <v>50</v>
+      </c>
+      <c r="P6" s="17"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
@@ -3887,21 +4010,24 @@
       <c r="H7" s="23">
         <v>1.45</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="23">
+        <v>48</v>
+      </c>
+      <c r="J7" s="21">
         <v>102</v>
       </c>
-      <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="20">
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20">
         <v>42.044148213514802</v>
       </c>
-      <c r="N7" s="21">
-        <v>50</v>
-      </c>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="21">
+        <v>50</v>
+      </c>
+      <c r="P7" s="17"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
@@ -3924,19 +4050,22 @@
       <c r="H8" s="23">
         <v>1.45</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
+      <c r="I8" s="23">
+        <v>48</v>
+      </c>
+      <c r="J8" s="21"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20">
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20">
         <v>20.95166201044681</v>
       </c>
-      <c r="N8" s="21">
-        <v>50</v>
-      </c>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="21">
+        <v>50</v>
+      </c>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>18</v>
       </c>
@@ -3959,19 +4088,22 @@
       <c r="H9" s="23">
         <v>1.45</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
+      <c r="I9" s="23">
+        <v>48</v>
+      </c>
+      <c r="J9" s="21"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20">
+      <c r="L9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20">
         <v>8.1087108716490821</v>
       </c>
-      <c r="N9" s="21">
-        <v>50</v>
-      </c>
-      <c r="O9" s="17"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="21">
+        <v>50</v>
+      </c>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>18</v>
       </c>
@@ -3994,19 +4126,22 @@
       <c r="H10" s="23">
         <v>1.45</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
+      <c r="I10" s="23">
+        <v>48</v>
+      </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="20">
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20">
         <v>3.62698883372971</v>
       </c>
-      <c r="N10" s="21">
-        <v>50</v>
-      </c>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="21">
+        <v>50</v>
+      </c>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
@@ -4029,19 +4164,22 @@
       <c r="H11" s="23">
         <v>1.45</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="23"/>
+      <c r="I11" s="23">
+        <v>48</v>
+      </c>
+      <c r="J11" s="21"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="20">
+      <c r="L11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20">
         <v>2.2746762406988821</v>
       </c>
-      <c r="N11" s="21">
-        <v>50</v>
-      </c>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11" s="21">
+        <v>50</v>
+      </c>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
@@ -4064,19 +4202,22 @@
       <c r="H12" s="23">
         <v>1.45</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
+      <c r="I12" s="23">
+        <v>48</v>
+      </c>
+      <c r="J12" s="21"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="20">
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20">
         <v>2.0414546284451194</v>
       </c>
-      <c r="N12" s="21">
-        <v>50</v>
-      </c>
-      <c r="O12" s="17"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="21">
+        <v>50</v>
+      </c>
+      <c r="P12" s="17"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
@@ -4099,19 +4240,22 @@
       <c r="H13" s="23">
         <v>1.45</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="23">
+        <v>48</v>
+      </c>
+      <c r="J13" s="21"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="20">
+      <c r="L13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20">
         <v>1.655739109884163</v>
       </c>
-      <c r="N13" s="21">
-        <v>50</v>
-      </c>
-      <c r="O13" s="17"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="21">
+        <v>50</v>
+      </c>
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
@@ -4134,19 +4278,22 @@
       <c r="H14" s="23">
         <v>1.45</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="23">
+        <v>48</v>
+      </c>
+      <c r="J14" s="21"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="20">
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20">
         <v>1.3192603988599068</v>
       </c>
-      <c r="N14" s="21">
-        <v>50</v>
-      </c>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="21">
+        <v>50</v>
+      </c>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>18</v>
       </c>
@@ -4169,19 +4316,22 @@
       <c r="H15" s="23">
         <v>1.45</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23"/>
+      <c r="I15" s="23">
+        <v>48</v>
+      </c>
+      <c r="J15" s="21"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="20">
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20">
         <v>0.99318125234017574</v>
       </c>
-      <c r="N15" s="21">
-        <v>50</v>
-      </c>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="21">
+        <v>50</v>
+      </c>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>18</v>
       </c>
@@ -4204,19 +4354,22 @@
       <c r="H16" s="23">
         <v>1.45</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="23"/>
+      <c r="I16" s="23">
+        <v>48</v>
+      </c>
+      <c r="J16" s="21"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="20">
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20">
         <v>0.82908983831669292</v>
       </c>
-      <c r="N16" s="21">
-        <v>50</v>
-      </c>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="21">
+        <v>50</v>
+      </c>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>18</v>
       </c>
@@ -4239,19 +4392,22 @@
       <c r="H17" s="23">
         <v>1.45</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="23">
+        <v>48</v>
+      </c>
+      <c r="J17" s="21"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="20">
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="20">
         <v>0.66581182777118042</v>
       </c>
-      <c r="N17" s="21">
-        <v>50</v>
-      </c>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="21">
+        <v>50</v>
+      </c>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
@@ -4274,19 +4430,22 @@
       <c r="H18" s="23">
         <v>1.45</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
+      <c r="I18" s="23">
+        <v>48</v>
+      </c>
+      <c r="J18" s="21"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="20">
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20">
         <v>0.49959827861993278</v>
       </c>
-      <c r="N18" s="21">
-        <v>50</v>
-      </c>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="21">
+        <v>50</v>
+      </c>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>18</v>
       </c>
@@ -4309,19 +4468,22 @@
       <c r="H19" s="23">
         <v>1.45</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="23"/>
+      <c r="I19" s="23">
+        <v>48</v>
+      </c>
+      <c r="J19" s="21"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="20">
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20">
         <v>0.41747052590572187</v>
       </c>
-      <c r="N19" s="21">
-        <v>50</v>
-      </c>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O19" s="21">
+        <v>50</v>
+      </c>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>18</v>
       </c>
@@ -4344,19 +4506,22 @@
       <c r="H20" s="23">
         <v>1.45</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="23">
+        <v>48</v>
+      </c>
+      <c r="J20" s="21"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="20">
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20">
         <v>0.3297413986747797</v>
       </c>
-      <c r="N20" s="21">
-        <v>50</v>
-      </c>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="21">
+        <v>50</v>
+      </c>
+      <c r="P20" s="17"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>18</v>
       </c>
@@ -4379,19 +4544,22 @@
       <c r="H21" s="23">
         <v>1.45</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="23"/>
+      <c r="I21" s="23">
+        <v>48</v>
+      </c>
+      <c r="J21" s="21"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="20">
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20">
         <v>0.24788473127645438</v>
       </c>
-      <c r="N21" s="21">
-        <v>50</v>
-      </c>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="21">
+        <v>50</v>
+      </c>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>18</v>
       </c>
@@ -4414,19 +4582,22 @@
       <c r="H22" s="23">
         <v>1.45</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="23"/>
+      <c r="I22" s="23">
+        <v>48</v>
+      </c>
+      <c r="J22" s="21"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="20">
+      <c r="L22" s="23"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20">
         <v>0.24916964100788844</v>
       </c>
-      <c r="N22" s="21">
-        <v>50</v>
-      </c>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="21">
+        <v>50</v>
+      </c>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>18</v>
       </c>
@@ -4449,19 +4620,22 @@
       <c r="H23" s="23">
         <v>1.45</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="23"/>
+      <c r="I23" s="23">
+        <v>48</v>
+      </c>
+      <c r="J23" s="21"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="20">
+      <c r="L23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20">
         <v>0.25063120316512866</v>
       </c>
-      <c r="N23" s="21">
-        <v>50</v>
-      </c>
-      <c r="O23" s="17"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="21">
+        <v>50</v>
+      </c>
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>18</v>
       </c>
@@ -4484,19 +4658,22 @@
       <c r="H24" s="23">
         <v>1.45</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="23">
+        <v>48</v>
+      </c>
+      <c r="J24" s="21"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="20">
+      <c r="L24" s="23"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20">
         <v>0.25037180352427868</v>
       </c>
-      <c r="N24" s="21">
-        <v>50</v>
-      </c>
-      <c r="O24" s="17"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="21">
+        <v>50</v>
+      </c>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>18</v>
       </c>
@@ -4519,17 +4696,50 @@
       <c r="H25" s="23">
         <v>1.45</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="23"/>
+      <c r="I25" s="23">
+        <v>48</v>
+      </c>
+      <c r="J25" s="21"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20">
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20">
         <v>0.25038320630585431</v>
       </c>
-      <c r="N25" s="21">
-        <v>50</v>
-      </c>
-      <c r="O25" s="17"/>
+      <c r="O25" s="21">
+        <v>50</v>
+      </c>
+      <c r="P25" s="17"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4540,7 +4750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE9B5D4-F934-48BA-9C7B-67137F0D6D60}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -5383,6 +5593,202 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21379843-094D-4D7F-97F0-8220362F5989}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1000.00054</v>
+      </c>
+      <c r="E4" s="20">
+        <v>15</v>
+      </c>
+      <c r="F4" s="21">
+        <v>18</v>
+      </c>
+      <c r="G4" s="23">
+        <v>8005.0770000000002</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.158</v>
+      </c>
+      <c r="I4" s="23">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21">
+        <v>102</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1000.0001999999999</v>
+      </c>
+      <c r="E5" s="20">
+        <v>15</v>
+      </c>
+      <c r="F5" s="21">
+        <v>18</v>
+      </c>
+      <c r="G5" s="23">
+        <v>8005.3810000000003</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.161</v>
+      </c>
+      <c r="I5" s="23">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21">
+        <v>99.7</v>
+      </c>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="20">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
+        <v>50</v>
+      </c>
+      <c r="P5" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1FE45F-5790-4499-A796-54814D075F0F}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
@@ -6228,12 +6634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F65443D-EC23-4028-B732-6F2DA2E7A0B6}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD19"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6245,16 +6651,16 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="60.7109375" customWidth="1"/>
-    <col min="16" max="16" width="0.5703125" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" customWidth="1"/>
+    <col min="17" max="17" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6274,15 +6680,16 @@
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -6296,15 +6703,16 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -6329,29 +6737,32 @@
       <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="O3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>37</v>
       </c>
@@ -6374,20 +6785,23 @@
       <c r="H4" s="23">
         <v>1.45</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="23"/>
+      <c r="I4" s="23">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20">
+      <c r="L4" s="23"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="20">
         <v>0</v>
       </c>
-      <c r="N4" s="21">
-        <v>50</v>
-      </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>37</v>
       </c>
@@ -6410,20 +6824,23 @@
       <c r="H5" s="23">
         <v>1.45</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="23">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="20">
+      <c r="L5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20">
         <v>0</v>
       </c>
-      <c r="N5" s="21">
-        <v>50</v>
-      </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="21">
+        <v>50</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>37</v>
       </c>
@@ -6446,20 +6863,23 @@
       <c r="H6" s="23">
         <v>1.45</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="23"/>
+      <c r="I6" s="23">
+        <v>48</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20">
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20">
         <v>0</v>
       </c>
-      <c r="N6" s="21">
-        <v>50</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="21">
+        <v>50</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>37</v>
       </c>
@@ -6482,20 +6902,23 @@
       <c r="H7" s="23">
         <v>1.45</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="23">
+        <v>48</v>
+      </c>
+      <c r="J7" s="21"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="20">
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20">
         <v>0</v>
       </c>
-      <c r="N7" s="21">
-        <v>50</v>
-      </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="21">
+        <v>50</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>37</v>
       </c>
@@ -6518,20 +6941,23 @@
       <c r="H8" s="23">
         <v>1.45</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
+      <c r="I8" s="23">
+        <v>48</v>
+      </c>
+      <c r="J8" s="21"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20">
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20">
         <v>0</v>
       </c>
-      <c r="N8" s="21">
-        <v>50</v>
-      </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="21">
+        <v>50</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
@@ -6554,20 +6980,23 @@
       <c r="H9" s="23">
         <v>1.45</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
+      <c r="I9" s="23">
+        <v>48</v>
+      </c>
+      <c r="J9" s="21"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20">
+      <c r="L9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20">
         <v>0</v>
       </c>
-      <c r="N9" s="21">
-        <v>50</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="21">
+        <v>50</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>37</v>
       </c>
@@ -6590,20 +7019,23 @@
       <c r="H10" s="23">
         <v>1.45</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
+      <c r="I10" s="23">
+        <v>48</v>
+      </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="20">
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20">
         <v>0</v>
       </c>
-      <c r="N10" s="21">
-        <v>50</v>
-      </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="21">
+        <v>50</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
@@ -6612,16 +7044,17 @@
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
@@ -6630,16 +7063,17 @@
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="15"/>
@@ -6648,16 +7082,17 @@
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="15"/>
@@ -6666,16 +7101,17 @@
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
@@ -6684,16 +7120,17 @@
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="15"/>
@@ -6702,16 +7139,17 @@
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="15"/>
@@ -6720,16 +7158,17 @@
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="15"/>
@@ -6738,16 +7177,17 @@
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="15"/>
@@ -6756,16 +7196,17 @@
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
@@ -6774,16 +7215,17 @@
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="15"/>
@@ -6792,16 +7234,17 @@
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6811,13 +7254,53 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="9:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="4"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>
@@ -6830,12 +7313,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520A4B3-5717-4848-9B55-AE1CAF888F1F}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6847,16 +7330,16 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="60.7109375" customWidth="1"/>
-    <col min="16" max="16" width="0.5703125" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" customWidth="1"/>
+    <col min="17" max="17" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6876,15 +7359,16 @@
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -6898,15 +7382,16 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -6931,29 +7416,32 @@
       <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="O3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
@@ -6976,19 +7464,22 @@
       <c r="H4" s="23">
         <v>1.45</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="27"/>
+      <c r="I4" s="23">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="20">
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="20">
         <v>427.00529078689408</v>
       </c>
-      <c r="N4" s="21">
-        <v>50</v>
-      </c>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
@@ -7011,20 +7502,23 @@
       <c r="H5" s="23">
         <v>1.45</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="23">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="20">
+      <c r="L5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20">
         <v>213.77517311418552</v>
       </c>
-      <c r="N5" s="21">
-        <v>50</v>
-      </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="21">
+        <v>50</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
@@ -7047,20 +7541,23 @@
       <c r="H6" s="23">
         <v>1.45</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="23"/>
+      <c r="I6" s="23">
+        <v>48</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20">
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20">
         <v>85.469199300098751</v>
       </c>
-      <c r="N6" s="21">
-        <v>50</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="21">
+        <v>50</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
@@ -7083,22 +7580,25 @@
       <c r="H7" s="23">
         <v>1.45</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="23">
+        <v>48</v>
+      </c>
+      <c r="J7" s="21">
         <v>102</v>
       </c>
-      <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="20">
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20">
         <v>42.044148213514802</v>
       </c>
-      <c r="N7" s="21">
-        <v>50</v>
-      </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="21">
+        <v>50</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
@@ -7121,20 +7621,23 @@
       <c r="H8" s="23">
         <v>1.45</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
+      <c r="I8" s="23">
+        <v>48</v>
+      </c>
+      <c r="J8" s="21"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20">
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20">
         <v>20.95166201044681</v>
       </c>
-      <c r="N8" s="21">
-        <v>50</v>
-      </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="21">
+        <v>50</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>18</v>
       </c>
@@ -7157,20 +7660,23 @@
       <c r="H9" s="23">
         <v>1.45</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
+      <c r="I9" s="23">
+        <v>48</v>
+      </c>
+      <c r="J9" s="21"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20">
+      <c r="L9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20">
         <v>8.1087108716490821</v>
       </c>
-      <c r="N9" s="21">
-        <v>50</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="21">
+        <v>50</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>18</v>
       </c>
@@ -7193,20 +7699,23 @@
       <c r="H10" s="23">
         <v>1.45</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
+      <c r="I10" s="23">
+        <v>48</v>
+      </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="20">
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20">
         <v>3.62698883372971</v>
       </c>
-      <c r="N10" s="21">
-        <v>50</v>
-      </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="21">
+        <v>50</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
@@ -7229,20 +7738,23 @@
       <c r="H11" s="23">
         <v>1.45</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="23"/>
+      <c r="I11" s="23">
+        <v>48</v>
+      </c>
+      <c r="J11" s="21"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="20">
+      <c r="L11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20">
         <v>2.2746762406988821</v>
       </c>
-      <c r="N11" s="21">
-        <v>50</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="21">
+        <v>50</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
@@ -7265,20 +7777,23 @@
       <c r="H12" s="23">
         <v>1.45</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
+      <c r="I12" s="23">
+        <v>48</v>
+      </c>
+      <c r="J12" s="21"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="20">
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20">
         <v>2.0414546284451194</v>
       </c>
-      <c r="N12" s="21">
-        <v>50</v>
-      </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="21">
+        <v>50</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
@@ -7301,20 +7816,23 @@
       <c r="H13" s="23">
         <v>1.45</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="23">
+        <v>48</v>
+      </c>
+      <c r="J13" s="21"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="20">
+      <c r="L13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20">
         <v>1.655739109884163</v>
       </c>
-      <c r="N13" s="21">
-        <v>50</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="21">
+        <v>50</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
@@ -7337,20 +7855,23 @@
       <c r="H14" s="23">
         <v>1.45</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="23">
+        <v>48</v>
+      </c>
+      <c r="J14" s="21"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="20">
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20">
         <v>1.3192603988599068</v>
       </c>
-      <c r="N14" s="21">
-        <v>50</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="21">
+        <v>50</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>18</v>
       </c>
@@ -7373,20 +7894,23 @@
       <c r="H15" s="23">
         <v>1.45</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23"/>
+      <c r="I15" s="23">
+        <v>48</v>
+      </c>
+      <c r="J15" s="21"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="20">
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20">
         <v>0.99318125234017574</v>
       </c>
-      <c r="N15" s="21">
-        <v>50</v>
-      </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="21">
+        <v>50</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>18</v>
       </c>
@@ -7409,20 +7933,23 @@
       <c r="H16" s="23">
         <v>1.45</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="23"/>
+      <c r="I16" s="23">
+        <v>48</v>
+      </c>
+      <c r="J16" s="21"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="20">
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20">
         <v>0.82908983831669292</v>
       </c>
-      <c r="N16" s="21">
-        <v>50</v>
-      </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="21">
+        <v>50</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>18</v>
       </c>
@@ -7445,20 +7972,23 @@
       <c r="H17" s="23">
         <v>1.45</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="23">
+        <v>48</v>
+      </c>
+      <c r="J17" s="21"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="20">
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="20">
         <v>0.66581182777118042</v>
       </c>
-      <c r="N17" s="21">
-        <v>50</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="21">
+        <v>50</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
@@ -7481,20 +8011,23 @@
       <c r="H18" s="23">
         <v>1.45</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
+      <c r="I18" s="23">
+        <v>48</v>
+      </c>
+      <c r="J18" s="21"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="20">
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20">
         <v>0.49959827861993278</v>
       </c>
-      <c r="N18" s="21">
-        <v>50</v>
-      </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="21">
+        <v>50</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>18</v>
       </c>
@@ -7517,20 +8050,23 @@
       <c r="H19" s="23">
         <v>1.45</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="23"/>
+      <c r="I19" s="23">
+        <v>48</v>
+      </c>
+      <c r="J19" s="21"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="20">
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20">
         <v>0.41747052590572187</v>
       </c>
-      <c r="N19" s="21">
-        <v>50</v>
-      </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="21">
+        <v>50</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>27</v>
       </c>
@@ -7553,20 +8089,23 @@
       <c r="H20" s="23">
         <v>1.45</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="23">
+        <v>48</v>
+      </c>
+      <c r="J20" s="21"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="20">
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20">
         <v>0.3297413986747797</v>
       </c>
-      <c r="N20" s="21">
-        <v>50</v>
-      </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="21">
+        <v>50</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>29</v>
       </c>
@@ -7589,20 +8128,23 @@
       <c r="H21" s="23">
         <v>1.45</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="23"/>
+      <c r="I21" s="23">
+        <v>48</v>
+      </c>
+      <c r="J21" s="21"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="20">
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20">
         <v>0.24788473127645438</v>
       </c>
-      <c r="N21" s="21">
-        <v>50</v>
-      </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="21">
+        <v>50</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>28</v>
       </c>
@@ -7625,20 +8167,23 @@
       <c r="H22" s="23">
         <v>1.45</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="23"/>
+      <c r="I22" s="23">
+        <v>48</v>
+      </c>
+      <c r="J22" s="21"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="20">
+      <c r="L22" s="23"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20">
         <v>0.24916964100788844</v>
       </c>
-      <c r="N22" s="21">
-        <v>50</v>
-      </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="21">
+        <v>50</v>
+      </c>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>27</v>
       </c>
@@ -7661,20 +8206,23 @@
       <c r="H23" s="23">
         <v>1.45</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="23"/>
+      <c r="I23" s="23">
+        <v>48</v>
+      </c>
+      <c r="J23" s="21"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="20">
+      <c r="L23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20">
         <v>0.25063120316512866</v>
       </c>
-      <c r="N23" s="21">
-        <v>50</v>
-      </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="21">
+        <v>50</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>29</v>
       </c>
@@ -7697,20 +8245,23 @@
       <c r="H24" s="23">
         <v>1.45</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="23">
+        <v>48</v>
+      </c>
+      <c r="J24" s="21"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="20">
+      <c r="L24" s="23"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20">
         <v>0.25037180352427868</v>
       </c>
-      <c r="N24" s="21">
-        <v>50</v>
-      </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="21">
+        <v>50</v>
+      </c>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>28</v>
       </c>
@@ -7733,20 +8284,23 @@
       <c r="H25" s="23">
         <v>1.45</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="23"/>
+      <c r="I25" s="23">
+        <v>48</v>
+      </c>
+      <c r="J25" s="21"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20">
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20">
         <v>0.25038320630585431</v>
       </c>
-      <c r="N25" s="21">
-        <v>50</v>
-      </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="21">
+        <v>50</v>
+      </c>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="15"/>
@@ -7755,16 +8309,17 @@
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="23"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="15"/>
@@ -7773,16 +8328,17 @@
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="23"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
@@ -7791,16 +8347,17 @@
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="23"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="15"/>
@@ -7809,16 +8366,17 @@
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="23"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="15"/>
@@ -7827,16 +8385,17 @@
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="23"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="15"/>
@@ -7845,16 +8404,17 @@
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="23"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="15"/>
@@ -7863,16 +8423,17 @@
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="23"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="23"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="15"/>
@@ -7881,16 +8442,17 @@
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="23"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="23"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="15"/>
@@ -7899,16 +8461,17 @@
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="23"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="15"/>
@@ -7917,16 +8480,17 @@
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="23"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="23"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="15"/>
@@ -7935,16 +8499,17 @@
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="23"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7954,13 +8519,14 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="1"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>

--- a/tests/samples/MASSREF4tests.xlsx
+++ b/tests/samples/MASSREF4tests.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFEBE73-5E73-445E-934F-18CD3DE34C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18ED57-956D-45CA-B3E3-6EEE6A547D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="843" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38790" yWindow="4905" windowWidth="19320" windowHeight="7245" tabRatio="843" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mettler A" sheetId="13" r:id="rId1"/>
     <sheet name="Mettler B" sheetId="14" r:id="rId2"/>
     <sheet name="CUSTOM" sheetId="15" r:id="rId3"/>
     <sheet name="Mettler A (2)" sheetId="17" r:id="rId4"/>
-    <sheet name="Constraints" sheetId="22" r:id="rId5"/>
-    <sheet name="Mettler B (2)" sheetId="18" r:id="rId6"/>
+    <sheet name="Mettler B (2)" sheetId="18" r:id="rId5"/>
+    <sheet name="Constraints" sheetId="22" r:id="rId6"/>
     <sheet name="Mettler 76a" sheetId="20" r:id="rId7"/>
-    <sheet name="W5 SS" sheetId="21" r:id="rId8"/>
+    <sheet name="Weight Set r" sheetId="23" r:id="rId8"/>
+    <sheet name="IRL955" sheetId="24" r:id="rId9"/>
+    <sheet name="W5 SS" sheetId="21" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'Mettler 76a'!$A:$C,'Mettler 76a'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Mettler A'!$A:$C,'Mettler A'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Mettler A (2)'!$A:$C,'Mettler A (2)'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Mettler B'!$A:$C,'Mettler B'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Mettler B (2)'!$A:$C,'Mettler B (2)'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'W5 SS'!$A:$C,'W5 SS'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Mettler B (2)'!$A:$C,'Mettler B (2)'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'W5 SS'!$A:$C,'W5 SS'!$1:$3</definedName>
     <definedName name="WeightSet" localSheetId="6">'Mettler 76a'!$B$4:$H$21</definedName>
     <definedName name="WeightSet" localSheetId="0">'Mettler A'!$B$5:$H$36</definedName>
     <definedName name="WeightSet" localSheetId="3">'Mettler A (2)'!$B$5:$H$36</definedName>
     <definedName name="WeightSet" localSheetId="1">'Mettler B'!$B$8:$H$36</definedName>
-    <definedName name="WeightSet" localSheetId="5">'Mettler B (2)'!$B$8:$H$36</definedName>
-    <definedName name="WeightSet" localSheetId="7">'W5 SS'!$B$5:$H$36</definedName>
+    <definedName name="WeightSet" localSheetId="4">'Mettler B (2)'!$B$8:$H$36</definedName>
+    <definedName name="WeightSet" localSheetId="9">'W5 SS'!$B$5:$H$36</definedName>
     <definedName name="WeightSet">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -219,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="52">
   <si>
     <t>ID:</t>
   </si>
@@ -549,6 +551,18 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>1kr Pt-Ir</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Platinum Iridium kilogram</t>
+  </si>
+  <si>
+    <t>u_height (mm)</t>
   </si>
 </sst>
 </file>
@@ -2533,6 +2547,1232 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520A4B3-5717-4848-9B55-AE1CAF888F1F}">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" customWidth="1"/>
+    <col min="17" max="17" width="0.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="30">
+        <v>35065</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="19">
+        <v>10000.00364074</v>
+      </c>
+      <c r="E4" s="20">
+        <v>155.87700000000001</v>
+      </c>
+      <c r="F4" s="21">
+        <v>33</v>
+      </c>
+      <c r="G4" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I4" s="23">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="20">
+        <v>427.00529078689408</v>
+      </c>
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="19">
+        <v>5000.0028770019999</v>
+      </c>
+      <c r="E5" s="20">
+        <v>78.076999999999998</v>
+      </c>
+      <c r="F5" s="21">
+        <v>33</v>
+      </c>
+      <c r="G5" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I5" s="23">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20">
+        <v>213.77517311418552</v>
+      </c>
+      <c r="O5" s="21">
+        <v>50</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="19">
+        <v>1999.999615211</v>
+      </c>
+      <c r="E6" s="20">
+        <v>31.314</v>
+      </c>
+      <c r="F6" s="21">
+        <v>33</v>
+      </c>
+      <c r="G6" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I6" s="23">
+        <v>48</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20">
+        <v>85.469199300098751</v>
+      </c>
+      <c r="O6" s="21">
+        <v>50</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="19">
+        <v>1000.000541002</v>
+      </c>
+      <c r="E7" s="20">
+        <v>14.785</v>
+      </c>
+      <c r="F7" s="21">
+        <v>18</v>
+      </c>
+      <c r="G7" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I7" s="23">
+        <v>48</v>
+      </c>
+      <c r="J7" s="21">
+        <v>102</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20">
+        <v>42.044148213514802</v>
+      </c>
+      <c r="O7" s="21">
+        <v>50</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13">
+        <v>500</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="19">
+        <v>500.00011696799999</v>
+      </c>
+      <c r="E8" s="20">
+        <v>7.6219999999999999</v>
+      </c>
+      <c r="F8" s="21">
+        <v>34</v>
+      </c>
+      <c r="G8" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H8" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I8" s="23">
+        <v>48</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20">
+        <v>20.95166201044681</v>
+      </c>
+      <c r="O8" s="21">
+        <v>50</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13">
+        <v>200</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="19">
+        <v>200.000195848</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="F9" s="21">
+        <v>34</v>
+      </c>
+      <c r="G9" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I9" s="23">
+        <v>48</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20">
+        <v>8.1087108716490821</v>
+      </c>
+      <c r="O9" s="21">
+        <v>50</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="13">
+        <v>100</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="19">
+        <v>100.000058368</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2.7090000000000001</v>
+      </c>
+      <c r="F10" s="21">
+        <v>34</v>
+      </c>
+      <c r="G10" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H10" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I10" s="23">
+        <v>48</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20">
+        <v>3.62698883372971</v>
+      </c>
+      <c r="O10" s="21">
+        <v>50</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13">
+        <v>50</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="19">
+        <v>50.000035719000003</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1.377</v>
+      </c>
+      <c r="F11" s="21">
+        <v>14</v>
+      </c>
+      <c r="G11" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I11" s="23">
+        <v>48</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20">
+        <v>2.2746762406988821</v>
+      </c>
+      <c r="O11" s="21">
+        <v>50</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="13">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="19">
+        <v>20.000006814999999</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F12" s="21">
+        <v>14</v>
+      </c>
+      <c r="G12" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I12" s="23">
+        <v>48</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20">
+        <v>2.0414546284451194</v>
+      </c>
+      <c r="O12" s="21">
+        <v>50</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="19">
+        <v>10.000013709999999</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.318</v>
+      </c>
+      <c r="F13" s="21">
+        <v>14</v>
+      </c>
+      <c r="G13" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I13" s="23">
+        <v>48</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20">
+        <v>1.655739109884163</v>
+      </c>
+      <c r="O13" s="21">
+        <v>50</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="13">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="19">
+        <v>5.0000117030000002</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.246</v>
+      </c>
+      <c r="F14" s="21">
+        <v>14</v>
+      </c>
+      <c r="G14" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H14" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I14" s="23">
+        <v>48</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20">
+        <v>1.3192603988599068</v>
+      </c>
+      <c r="O14" s="21">
+        <v>50</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="19">
+        <v>2.0000093849999998</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15" s="21">
+        <v>14</v>
+      </c>
+      <c r="G15" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I15" s="23">
+        <v>48</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20">
+        <v>0.99318125234017574</v>
+      </c>
+      <c r="O15" s="21">
+        <v>50</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="19">
+        <v>1.0000066750000001</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.1148</v>
+      </c>
+      <c r="F16" s="21">
+        <v>14</v>
+      </c>
+      <c r="G16" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I16" s="23">
+        <v>48</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20">
+        <v>0.82908983831669292</v>
+      </c>
+      <c r="O16" s="21">
+        <v>50</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="19">
+        <v>0.49999992700000001</v>
+      </c>
+      <c r="E17" s="20">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="F17" s="21">
+        <v>14</v>
+      </c>
+      <c r="G17" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I17" s="23">
+        <v>48</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="20">
+        <v>0.66581182777118042</v>
+      </c>
+      <c r="O17" s="21">
+        <v>50</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="19">
+        <v>0.20000657299999999</v>
+      </c>
+      <c r="E18" s="20">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <v>14</v>
+      </c>
+      <c r="G18" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I18" s="23">
+        <v>48</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20">
+        <v>0.49959827861993278</v>
+      </c>
+      <c r="O18" s="21">
+        <v>50</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="19">
+        <v>9.9997197999999995E-2</v>
+      </c>
+      <c r="E19" s="20">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="F19" s="21">
+        <v>14</v>
+      </c>
+      <c r="G19" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I19" s="23">
+        <v>48</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20">
+        <v>0.41747052590572187</v>
+      </c>
+      <c r="O19" s="21">
+        <v>50</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="19">
+        <v>5.0003101000000001E-2</v>
+      </c>
+      <c r="E20" s="20">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <v>14</v>
+      </c>
+      <c r="G20" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I20" s="23">
+        <v>48</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20">
+        <v>0.3297413986747797</v>
+      </c>
+      <c r="O20" s="21">
+        <v>50</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="19">
+        <v>2.0001313E-2</v>
+      </c>
+      <c r="E21" s="20">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="F21" s="21">
+        <v>14</v>
+      </c>
+      <c r="G21" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I21" s="23">
+        <v>48</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20">
+        <v>0.24788473127645438</v>
+      </c>
+      <c r="O21" s="21">
+        <v>50</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="19">
+        <v>1.0001782000000001E-2</v>
+      </c>
+      <c r="E22" s="20">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="F22" s="21">
+        <v>14</v>
+      </c>
+      <c r="G22" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I22" s="23">
+        <v>48</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20">
+        <v>0.24916964100788844</v>
+      </c>
+      <c r="O22" s="21">
+        <v>50</v>
+      </c>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="19">
+        <v>5.0012650000000004E-3</v>
+      </c>
+      <c r="E23" s="20">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F23" s="21">
+        <v>14</v>
+      </c>
+      <c r="G23" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H23" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I23" s="23">
+        <v>48</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20">
+        <v>0.25063120316512866</v>
+      </c>
+      <c r="O23" s="21">
+        <v>50</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="19">
+        <v>2.0007419999999998E-3</v>
+      </c>
+      <c r="E24" s="20">
+        <v>2.86E-2</v>
+      </c>
+      <c r="F24" s="21">
+        <v>14</v>
+      </c>
+      <c r="G24" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I24" s="23">
+        <v>48</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20">
+        <v>0.25037180352427868</v>
+      </c>
+      <c r="O24" s="21">
+        <v>50</v>
+      </c>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="19">
+        <v>1.0016179999999999E-3</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="F25" s="21">
+        <v>14</v>
+      </c>
+      <c r="G25" s="23">
+        <v>8012</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="I25" s="23">
+        <v>48</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20">
+        <v>0.25038320630585431</v>
+      </c>
+      <c r="O25" s="21">
+        <v>50</v>
+      </c>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.5" top="0.75" bottom="0.5" header="0.375" footer="0.25"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A&amp;RPage &amp;P of &amp;N</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;R&amp;T  &amp;D</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q37"/>
@@ -3763,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D676A-B30C-42EC-A573-74543F6A241F}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -5593,202 +6833,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21379843-094D-4D7F-97F0-8220362F5989}">
-  <dimension ref="A1:P5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="19">
-        <v>1000.00054</v>
-      </c>
-      <c r="E4" s="20">
-        <v>15</v>
-      </c>
-      <c r="F4" s="21">
-        <v>18</v>
-      </c>
-      <c r="G4" s="23">
-        <v>8005.0770000000002</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0.158</v>
-      </c>
-      <c r="I4" s="23">
-        <v>48</v>
-      </c>
-      <c r="J4" s="21">
-        <v>102</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="20">
-        <v>0</v>
-      </c>
-      <c r="O4" s="21">
-        <v>50</v>
-      </c>
-      <c r="P4" s="17"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1000.0001999999999</v>
-      </c>
-      <c r="E5" s="20">
-        <v>15</v>
-      </c>
-      <c r="F5" s="21">
-        <v>18</v>
-      </c>
-      <c r="G5" s="23">
-        <v>8005.3810000000003</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.161</v>
-      </c>
-      <c r="I5" s="23">
-        <v>48</v>
-      </c>
-      <c r="J5" s="21">
-        <v>99.7</v>
-      </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="O5" s="21">
-        <v>50</v>
-      </c>
-      <c r="P5" s="45"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1FE45F-5790-4499-A796-54814D075F0F}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
@@ -6631,6 +7675,202 @@
     <oddFooter>&amp;L&amp;F&amp;R&amp;T  &amp;D</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21379843-094D-4D7F-97F0-8220362F5989}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1000.00054</v>
+      </c>
+      <c r="E4" s="20">
+        <v>15</v>
+      </c>
+      <c r="F4" s="21">
+        <v>18</v>
+      </c>
+      <c r="G4" s="23">
+        <v>8005.0770000000002</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.158</v>
+      </c>
+      <c r="I4" s="23">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21">
+        <v>102</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1000.0001999999999</v>
+      </c>
+      <c r="E5" s="20">
+        <v>15</v>
+      </c>
+      <c r="F5" s="21">
+        <v>18</v>
+      </c>
+      <c r="G5" s="23">
+        <v>8005.3810000000003</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.161</v>
+      </c>
+      <c r="I5" s="23">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21">
+        <v>99.7</v>
+      </c>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="20">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
+        <v>50</v>
+      </c>
+      <c r="P5" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7314,49 +8554,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520A4B3-5717-4848-9B55-AE1CAF888F1F}">
-  <dimension ref="A1:Q37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C375DB8-F6DE-4CE3-BA89-0CFFFE311BD4}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="60.7109375" customWidth="1"/>
-    <col min="17" max="17" width="0.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="30">
-        <v>35065</v>
-      </c>
+      <c r="F1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="30"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -7366,14 +8593,13 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -7389,1152 +8615,257 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>10</v>
+      <c r="G3" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>45</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="18" t="s">
+      <c r="L3" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="56" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
       <c r="B4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="19">
-        <v>10000.00364074</v>
+        <v>999.99995000000001</v>
       </c>
       <c r="E4" s="20">
-        <v>155.87700000000001</v>
-      </c>
-      <c r="F4" s="21">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F4" s="21"/>
       <c r="G4" s="23">
-        <v>8012</v>
+        <v>21530</v>
       </c>
       <c r="H4" s="23">
-        <v>1.45</v>
+        <v>3.4550000000000001</v>
       </c>
       <c r="I4" s="23">
-        <v>48</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J4" s="21">
+        <v>102</v>
+      </c>
+      <c r="K4" s="23">
+        <v>30</v>
+      </c>
+      <c r="L4" s="23">
+        <f>29.815</f>
+        <v>29.815000000000001</v>
+      </c>
+      <c r="M4" s="21"/>
       <c r="N4" s="20">
-        <v>427.00529078689408</v>
+        <v>0</v>
       </c>
       <c r="O4" s="21">
         <v>50</v>
       </c>
-      <c r="P4" s="29"/>
-    </row>
-    <row r="5" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="19">
-        <v>5000.0028770019999</v>
-      </c>
-      <c r="E5" s="20">
-        <v>78.076999999999998</v>
-      </c>
-      <c r="F5" s="21">
-        <v>33</v>
-      </c>
-      <c r="G5" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H5" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I5" s="23">
-        <v>48</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="20">
-        <v>213.77517311418552</v>
-      </c>
-      <c r="O5" s="21">
-        <v>50</v>
-      </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19">
-        <v>1999.999615211</v>
-      </c>
-      <c r="E6" s="20">
-        <v>31.314</v>
-      </c>
-      <c r="F6" s="21">
-        <v>33</v>
-      </c>
-      <c r="G6" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H6" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I6" s="23">
-        <v>48</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="20">
-        <v>85.469199300098751</v>
-      </c>
-      <c r="O6" s="21">
-        <v>50</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="P4" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF045F-EC42-4D90-81D2-6A8D0CE52421}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19">
-        <v>1000.000541002</v>
-      </c>
-      <c r="E7" s="20">
-        <v>14.785</v>
-      </c>
-      <c r="F7" s="21">
-        <v>18</v>
-      </c>
-      <c r="G7" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H7" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I7" s="23">
-        <v>48</v>
-      </c>
-      <c r="J7" s="21">
+      <c r="C4" s="15"/>
+      <c r="D4" s="19">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="23">
+        <v>7950</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J4" s="21">
         <v>102</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="20">
-        <v>42.044148213514802</v>
-      </c>
-      <c r="O7" s="21">
-        <v>50</v>
-      </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="13">
-        <v>500</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19">
-        <v>500.00011696799999</v>
-      </c>
-      <c r="E8" s="20">
-        <v>7.6219999999999999</v>
-      </c>
-      <c r="F8" s="21">
-        <v>34</v>
-      </c>
-      <c r="G8" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H8" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I8" s="23">
-        <v>48</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="20">
-        <v>20.95166201044681</v>
-      </c>
-      <c r="O8" s="21">
-        <v>50</v>
-      </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="13">
-        <v>200</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19">
-        <v>200.000195848</v>
-      </c>
-      <c r="E9" s="20">
-        <v>3.7669999999999999</v>
-      </c>
-      <c r="F9" s="21">
-        <v>34</v>
-      </c>
-      <c r="G9" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H9" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I9" s="23">
-        <v>48</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="20">
-        <v>8.1087108716490821</v>
-      </c>
-      <c r="O9" s="21">
-        <v>50</v>
-      </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="13">
-        <v>100</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19">
-        <v>100.000058368</v>
-      </c>
-      <c r="E10" s="20">
-        <v>2.7090000000000001</v>
-      </c>
-      <c r="F10" s="21">
-        <v>34</v>
-      </c>
-      <c r="G10" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H10" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I10" s="23">
-        <v>48</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="20">
-        <v>3.62698883372971</v>
-      </c>
-      <c r="O10" s="21">
-        <v>50</v>
-      </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="13">
-        <v>50</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="19">
-        <v>50.000035719000003</v>
-      </c>
-      <c r="E11" s="20">
-        <v>1.377</v>
-      </c>
-      <c r="F11" s="21">
-        <v>14</v>
-      </c>
-      <c r="G11" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H11" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I11" s="23">
-        <v>48</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="20">
-        <v>2.2746762406988821</v>
-      </c>
-      <c r="O11" s="21">
-        <v>50</v>
-      </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="13">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="19">
-        <v>20.000006814999999</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="F12" s="21">
-        <v>14</v>
-      </c>
-      <c r="G12" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H12" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I12" s="23">
-        <v>48</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="20">
-        <v>2.0414546284451194</v>
-      </c>
-      <c r="O12" s="21">
-        <v>50</v>
-      </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="19">
-        <v>10.000013709999999</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0.318</v>
-      </c>
-      <c r="F13" s="21">
-        <v>14</v>
-      </c>
-      <c r="G13" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H13" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I13" s="23">
-        <v>48</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="20">
-        <v>1.655739109884163</v>
-      </c>
-      <c r="O13" s="21">
-        <v>50</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="13">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="19">
-        <v>5.0000117030000002</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0.246</v>
-      </c>
-      <c r="F14" s="21">
-        <v>14</v>
-      </c>
-      <c r="G14" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H14" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I14" s="23">
-        <v>48</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="20">
-        <v>1.3192603988599068</v>
-      </c>
-      <c r="O14" s="21">
-        <v>50</v>
-      </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19">
-        <v>2.0000093849999998</v>
-      </c>
-      <c r="E15" s="20">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F15" s="21">
-        <v>14</v>
-      </c>
-      <c r="G15" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H15" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I15" s="23">
-        <v>48</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="20">
-        <v>0.99318125234017574</v>
-      </c>
-      <c r="O15" s="21">
-        <v>50</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="13">
-        <v>1</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="19">
-        <v>1.0000066750000001</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0.1148</v>
-      </c>
-      <c r="F16" s="21">
-        <v>14</v>
-      </c>
-      <c r="G16" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H16" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I16" s="23">
-        <v>48</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="20">
-        <v>0.82908983831669292</v>
-      </c>
-      <c r="O16" s="21">
-        <v>50</v>
-      </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="19">
-        <v>0.49999992700000001</v>
-      </c>
-      <c r="E17" s="20">
-        <v>9.8100000000000007E-2</v>
-      </c>
-      <c r="F17" s="21">
-        <v>14</v>
-      </c>
-      <c r="G17" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H17" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I17" s="23">
-        <v>48</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="20">
-        <v>0.66581182777118042</v>
-      </c>
-      <c r="O17" s="21">
-        <v>50</v>
-      </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="19">
-        <v>0.20000657299999999</v>
-      </c>
-      <c r="E18" s="20">
-        <v>5.8400000000000001E-2</v>
-      </c>
-      <c r="F18" s="21">
-        <v>14</v>
-      </c>
-      <c r="G18" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H18" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I18" s="23">
-        <v>48</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="20">
-        <v>0.49959827861993278</v>
-      </c>
-      <c r="O18" s="21">
-        <v>50</v>
-      </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="K4" s="23">
+        <v>19.5</v>
+      </c>
+      <c r="L4" s="23">
         <v>0.1</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="19">
-        <v>9.9997197999999995E-2</v>
-      </c>
-      <c r="E19" s="20">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="F19" s="21">
-        <v>14</v>
-      </c>
-      <c r="G19" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H19" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I19" s="23">
-        <v>48</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="20">
-        <v>0.41747052590572187</v>
-      </c>
-      <c r="O19" s="21">
-        <v>50</v>
-      </c>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="19">
-        <v>5.0003101000000001E-2</v>
-      </c>
-      <c r="E20" s="20">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="F20" s="21">
-        <v>14</v>
-      </c>
-      <c r="G20" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H20" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I20" s="23">
-        <v>48</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="20">
-        <v>0.3297413986747797</v>
-      </c>
-      <c r="O20" s="21">
-        <v>50</v>
-      </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="19">
-        <v>2.0001313E-2</v>
-      </c>
-      <c r="E21" s="20">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="F21" s="21">
-        <v>14</v>
-      </c>
-      <c r="G21" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H21" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I21" s="23">
-        <v>48</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="20">
-        <v>0.24788473127645438</v>
-      </c>
-      <c r="O21" s="21">
-        <v>50</v>
-      </c>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="19">
-        <v>1.0001782000000001E-2</v>
-      </c>
-      <c r="E22" s="20">
-        <v>4.9299999999999997E-2</v>
-      </c>
-      <c r="F22" s="21">
-        <v>14</v>
-      </c>
-      <c r="G22" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H22" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I22" s="23">
-        <v>48</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="20">
-        <v>0.24916964100788844</v>
-      </c>
-      <c r="O22" s="21">
-        <v>50</v>
-      </c>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="19">
-        <v>5.0012650000000004E-3</v>
-      </c>
-      <c r="E23" s="20">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F23" s="21">
-        <v>14</v>
-      </c>
-      <c r="G23" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H23" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I23" s="23">
-        <v>48</v>
-      </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="20">
-        <v>0.25063120316512866</v>
-      </c>
-      <c r="O23" s="21">
-        <v>50</v>
-      </c>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="13">
-        <v>2E-3</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="19">
-        <v>2.0007419999999998E-3</v>
-      </c>
-      <c r="E24" s="20">
-        <v>2.86E-2</v>
-      </c>
-      <c r="F24" s="21">
-        <v>14</v>
-      </c>
-      <c r="G24" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H24" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I24" s="23">
-        <v>48</v>
-      </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="20">
-        <v>0.25037180352427868</v>
-      </c>
-      <c r="O24" s="21">
-        <v>50</v>
-      </c>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="19">
-        <v>1.0016179999999999E-3</v>
-      </c>
-      <c r="E25" s="20">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="F25" s="21">
-        <v>14</v>
-      </c>
-      <c r="G25" s="23">
-        <v>8012</v>
-      </c>
-      <c r="H25" s="23">
-        <v>1.45</v>
-      </c>
-      <c r="I25" s="23">
-        <v>48</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="20">
-        <v>0.25038320630585431</v>
-      </c>
-      <c r="O25" s="21">
-        <v>50</v>
-      </c>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="1:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="1"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
+        <v>50</v>
+      </c>
+      <c r="P4" s="17"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.5" top="0.75" bottom="0.5" header="0.375" footer="0.25"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A&amp;RPage &amp;P of &amp;N</oddHeader>
-    <oddFooter>&amp;L&amp;F&amp;R&amp;T  &amp;D</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>